--- a/Top 250 Most Reviewed Games on Steam.xlsx
+++ b/Top 250 Most Reviewed Games on Steam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritik\Documents\Projects\Web scraping project\Top-250-Reviewed-Games-on-Steam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96256D97-DCBB-45F0-A7D0-8775987FBA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F496FC6-6CE1-449B-B900-3E0C75ACAF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="582">
   <si>
     <t>Game Rank</t>
   </si>
@@ -52,9 +52,6 @@
     <t>2012</t>
   </si>
   <si>
-    <t>8,259,902</t>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>2017</t>
   </si>
   <si>
-    <t>2,414,161</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>2013</t>
   </si>
   <si>
-    <t>2,299,720</t>
-  </si>
-  <si>
     <t>82</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>2015</t>
   </si>
   <si>
-    <t>1,855,569</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t>2011</t>
   </si>
   <si>
-    <t>1,322,821</t>
-  </si>
-  <si>
     <t>98</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t xml:space="preserve"> Tom Clancy's Rainbow Six® Siege</t>
   </si>
   <si>
-    <t>1,313,905</t>
-  </si>
-  <si>
     <t>85</t>
   </si>
   <si>
@@ -151,9 +133,6 @@
     <t>2007</t>
   </si>
   <si>
-    <t>1,114,499</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8</t>
   </si>
   <si>
@@ -166,9 +145,6 @@
     <t>2018</t>
   </si>
   <si>
-    <t>1,097,297</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 9</t>
   </si>
   <si>
@@ -181,9 +157,6 @@
     <t>2006</t>
   </si>
   <si>
-    <t>1,093,664</t>
-  </si>
-  <si>
     <t>97</t>
   </si>
   <si>
@@ -196,9 +169,6 @@
     <t>2022</t>
   </si>
   <si>
-    <t>947,875</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
@@ -211,9 +181,6 @@
     <t>2020</t>
   </si>
   <si>
-    <t>938,657</t>
-  </si>
-  <si>
     <t>69</t>
   </si>
   <si>
@@ -226,9 +193,6 @@
     <t>2024</t>
   </si>
   <si>
-    <t>898,205</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
@@ -241,18 +205,12 @@
     <t>2009</t>
   </si>
   <si>
-    <t>881,467</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 14</t>
   </si>
   <si>
     <t xml:space="preserve"> The Witcher 3: Wild Hunt</t>
   </si>
   <si>
-    <t>792,473</t>
-  </si>
-  <si>
     <t>96</t>
   </si>
   <si>
@@ -262,18 +220,12 @@
     <t xml:space="preserve"> Euro Truck Simulator 2</t>
   </si>
   <si>
-    <t>791,558</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 16</t>
   </si>
   <si>
     <t xml:space="preserve"> Cyberpunk 2077</t>
   </si>
   <si>
-    <t>762,381</t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
@@ -286,9 +238,6 @@
     <t>2016</t>
   </si>
   <si>
-    <t>747,698</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 18</t>
   </si>
   <si>
@@ -298,9 +247,6 @@
     <t>Jun</t>
   </si>
   <si>
-    <t>741,833</t>
-  </si>
-  <si>
     <t>80</t>
   </si>
   <si>
@@ -313,27 +259,18 @@
     <t>Sep</t>
   </si>
   <si>
-    <t>701,738</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 20</t>
   </si>
   <si>
     <t xml:space="preserve"> ARK: Survival Evolved</t>
   </si>
   <si>
-    <t>700,000</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 21</t>
   </si>
   <si>
     <t xml:space="preserve"> Among Us</t>
   </si>
   <si>
-    <t>688,409</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
@@ -343,9 +280,6 @@
     <t xml:space="preserve"> War Thunder</t>
   </si>
   <si>
-    <t>662,605</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -355,9 +289,6 @@
     <t xml:space="preserve"> PAYDAY 2</t>
   </si>
   <si>
-    <t>656,435</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
@@ -370,9 +301,6 @@
     <t>2023</t>
   </si>
   <si>
-    <t>643,099</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 25</t>
   </si>
   <si>
@@ -382,27 +310,18 @@
     <t>2019</t>
   </si>
   <si>
-    <t>610,139</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 26</t>
   </si>
   <si>
     <t xml:space="preserve"> Red Dead Redemption 2</t>
   </si>
   <si>
-    <t>607,643</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 27</t>
   </si>
   <si>
     <t xml:space="preserve"> Call of Duty®</t>
   </si>
   <si>
-    <t>606,086</t>
-  </si>
-  <si>
     <t>58</t>
   </si>
   <si>
@@ -415,27 +334,18 @@
     <t>Mar</t>
   </si>
   <si>
-    <t>594,004</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 29</t>
   </si>
   <si>
     <t xml:space="preserve"> The Forest</t>
   </si>
   <si>
-    <t>555,140</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 30</t>
   </si>
   <si>
     <t xml:space="preserve"> Unturned</t>
   </si>
   <si>
-    <t>544,764</t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
@@ -445,9 +355,6 @@
     <t xml:space="preserve"> Don't Starve Together</t>
   </si>
   <si>
-    <t>464,454</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 32</t>
   </si>
   <si>
@@ -457,9 +364,6 @@
     <t>2021</t>
   </si>
   <si>
-    <t>463,898</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -469,9 +373,6 @@
     <t xml:space="preserve"> Monster Hunter: World</t>
   </si>
   <si>
-    <t>454,190</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
@@ -484,9 +385,6 @@
     <t>Jan</t>
   </si>
   <si>
-    <t>424,315</t>
-  </si>
-  <si>
     <t>95</t>
   </si>
   <si>
@@ -496,18 +394,12 @@
     <t xml:space="preserve"> Lethal Company</t>
   </si>
   <si>
-    <t>423,293</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 36</t>
   </si>
   <si>
     <t xml:space="preserve"> Portal 2</t>
   </si>
   <si>
-    <t>403,824</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
@@ -517,9 +409,6 @@
     <t xml:space="preserve"> DayZ</t>
   </si>
   <si>
-    <t>398,352</t>
-  </si>
-  <si>
     <t>76</t>
   </si>
   <si>
@@ -529,27 +418,18 @@
     <t xml:space="preserve"> DARK SOULS™ III</t>
   </si>
   <si>
-    <t>390,048</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 39</t>
   </si>
   <si>
     <t xml:space="preserve"> Fallout 4</t>
   </si>
   <si>
-    <t>375,256</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 40</t>
   </si>
   <si>
     <t xml:space="preserve"> Brawlhalla</t>
   </si>
   <si>
-    <t>370,241</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 41</t>
   </si>
   <si>
@@ -559,54 +439,36 @@
     <t>2014</t>
   </si>
   <si>
-    <t>367,480</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 42</t>
   </si>
   <si>
     <t xml:space="preserve"> Hollow Knight</t>
   </si>
   <si>
-    <t>365,908</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 43</t>
   </si>
   <si>
     <t xml:space="preserve"> Paladins®</t>
   </si>
   <si>
-    <t>345,214</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 44</t>
   </si>
   <si>
     <t xml:space="preserve"> Sea of Thieves: 2024 Edition</t>
   </si>
   <si>
-    <t>337,656</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 45</t>
   </si>
   <si>
     <t xml:space="preserve"> 7 Days to Die</t>
   </si>
   <si>
-    <t>334,927</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 46</t>
   </si>
   <si>
     <t xml:space="preserve"> Sid Meier’s Civilization® VI</t>
   </si>
   <si>
-    <t>324,051</t>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
@@ -616,54 +478,36 @@
     <t xml:space="preserve"> Bloons TD 6</t>
   </si>
   <si>
-    <t>323,911</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 48</t>
   </si>
   <si>
     <t xml:space="preserve"> Raft</t>
   </si>
   <si>
-    <t>321,491</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 49</t>
   </si>
   <si>
     <t xml:space="preserve"> The Elder Scrolls V: Skyrim</t>
   </si>
   <si>
-    <t>316,162</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 50</t>
   </si>
   <si>
     <t xml:space="preserve"> Palworld</t>
   </si>
   <si>
-    <t>315,432</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 51</t>
   </si>
   <si>
     <t xml:space="preserve"> Project Zomboid</t>
   </si>
   <si>
-    <t>314,479</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 52</t>
   </si>
   <si>
     <t xml:space="preserve"> No Man's Sky</t>
   </si>
   <si>
-    <t>313,900</t>
-  </si>
-  <si>
     <t>81</t>
   </si>
   <si>
@@ -673,54 +517,36 @@
     <t xml:space="preserve"> Deep Rock Galactic</t>
   </si>
   <si>
-    <t>306,664</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 54</t>
   </si>
   <si>
     <t xml:space="preserve"> The Elder Scrolls V: Skyrim Special Edition</t>
   </si>
   <si>
-    <t>305,400</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 55</t>
   </si>
   <si>
     <t xml:space="preserve"> Hearts of Iron IV</t>
   </si>
   <si>
-    <t>298,396</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 56</t>
   </si>
   <si>
     <t xml:space="preserve"> The Binding of Isaac: Rebirth</t>
   </si>
   <si>
-    <t>297,523</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 57</t>
   </si>
   <si>
     <t xml:space="preserve"> Sekiro™: Shadows Die Twice - GOTY Edition</t>
   </si>
   <si>
-    <t>294,553</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 58</t>
   </si>
   <si>
     <t xml:space="preserve"> Overwatch® 2</t>
   </si>
   <si>
-    <t>290,061</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -730,9 +556,6 @@
     <t xml:space="preserve"> NARAKA: BLADEPOINT</t>
   </si>
   <si>
-    <t>288,322</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
@@ -742,36 +565,24 @@
     <t xml:space="preserve"> Borderlands 2</t>
   </si>
   <si>
-    <t>285,170</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 61</t>
   </si>
   <si>
     <t xml:space="preserve"> Risk of Rain 2</t>
   </si>
   <si>
-    <t>282,809</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 62</t>
   </si>
   <si>
     <t xml:space="preserve"> Subnautica</t>
   </si>
   <si>
-    <t>280,879</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 63</t>
   </si>
   <si>
     <t xml:space="preserve"> New World</t>
   </si>
   <si>
-    <t>279,842</t>
-  </si>
-  <si>
     <t>68</t>
   </si>
   <si>
@@ -781,18 +592,12 @@
     <t xml:space="preserve"> Hogwarts Legacy</t>
   </si>
   <si>
-    <t>277,161</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 65</t>
   </si>
   <si>
     <t xml:space="preserve"> Battlefield™ 2042</t>
   </si>
   <si>
-    <t>273,101</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -802,63 +607,42 @@
     <t xml:space="preserve"> Arma 3</t>
   </si>
   <si>
-    <t>270,768</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 67</t>
   </si>
   <si>
     <t xml:space="preserve"> Hades</t>
   </si>
   <si>
-    <t>266,552</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 68</t>
   </si>
   <si>
     <t xml:space="preserve"> BeamNG</t>
   </si>
   <si>
-    <t>264,994</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 69</t>
   </si>
   <si>
     <t xml:space="preserve"> Cities: Skylines</t>
   </si>
   <si>
-    <t>259,553</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 70</t>
   </si>
   <si>
     <t xml:space="preserve"> People Playground</t>
   </si>
   <si>
-    <t>256,050</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 71</t>
   </si>
   <si>
     <t xml:space="preserve"> Mount &amp; Blade II: Bannerlord</t>
   </si>
   <si>
-    <t>248,841</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 72</t>
   </si>
   <si>
     <t xml:space="preserve"> Forza Horizon 4</t>
   </si>
   <si>
-    <t>241,247</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 73</t>
   </si>
   <si>
@@ -868,63 +652,42 @@
     <t>2000</t>
   </si>
   <si>
-    <t>240,074</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 74</t>
   </si>
   <si>
     <t xml:space="preserve"> Undertale</t>
   </si>
   <si>
-    <t>236,610</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 75</t>
   </si>
   <si>
     <t xml:space="preserve"> Tomb Raider</t>
   </si>
   <si>
-    <t>235,213</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 76</t>
   </si>
   <si>
     <t xml:space="preserve"> Vampire Survivors</t>
   </si>
   <si>
-    <t>233,964</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 77</t>
   </si>
   <si>
     <t xml:space="preserve"> Titanfall® 2</t>
   </si>
   <si>
-    <t>231,036</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 78</t>
   </si>
   <si>
     <t xml:space="preserve"> Halo: The Master Chief Collection</t>
   </si>
   <si>
-    <t>230,582</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 79</t>
   </si>
   <si>
     <t xml:space="preserve"> Path of Exile</t>
   </si>
   <si>
-    <t>224,939</t>
-  </si>
-  <si>
     <t>89</t>
   </si>
   <si>
@@ -934,9 +697,6 @@
     <t xml:space="preserve"> VRChat</t>
   </si>
   <si>
-    <t>223,383</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -946,9 +706,6 @@
     <t xml:space="preserve"> 鬼谷八荒 Tale of Immortal</t>
   </si>
   <si>
-    <t>223,296</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
@@ -958,9 +715,6 @@
     <t xml:space="preserve"> Battlefield™ V</t>
   </si>
   <si>
-    <t>222,952</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
@@ -970,9 +724,6 @@
     <t xml:space="preserve"> Hunt: Showdown 1896</t>
   </si>
   <si>
-    <t>221,302</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 84</t>
   </si>
   <si>
@@ -982,18 +733,12 @@
     <t>2010</t>
   </si>
   <si>
-    <t>215,482</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 85</t>
   </si>
   <si>
     <t xml:space="preserve"> Z1 Battle Royale</t>
   </si>
   <si>
-    <t>205,131</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
@@ -1003,9 +748,6 @@
     <t xml:space="preserve"> Call of Duty®: Black Ops III</t>
   </si>
   <si>
-    <t>203,646</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
@@ -1015,54 +757,36 @@
     <t xml:space="preserve"> Sons Of The Forest</t>
   </si>
   <si>
-    <t>202,907</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 88</t>
   </si>
   <si>
     <t xml:space="preserve"> Human Fall Flat</t>
   </si>
   <si>
-    <t>202,864</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 89</t>
   </si>
   <si>
     <t xml:space="preserve"> Black Myth: Wukong</t>
   </si>
   <si>
-    <t>202,664</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 90</t>
   </si>
   <si>
     <t xml:space="preserve"> Doki Doki Literature Club!</t>
   </si>
   <si>
-    <t>201,586</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 91</t>
   </si>
   <si>
     <t xml:space="preserve"> Lost Ark</t>
   </si>
   <si>
-    <t>200,388</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 92</t>
   </si>
   <si>
     <t xml:space="preserve"> Sid Meier's Civilization® V</t>
   </si>
   <si>
-    <t>198,884</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 93</t>
   </si>
   <si>
@@ -1072,135 +796,90 @@
     <t>2004</t>
   </si>
   <si>
-    <t>198,431</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 94</t>
   </si>
   <si>
     <t xml:space="preserve"> SCP: Secret Laboratory</t>
   </si>
   <si>
-    <t>197,257</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 95</t>
   </si>
   <si>
     <t xml:space="preserve"> DOOM Eternal</t>
   </si>
   <si>
-    <t>193,829</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 96</t>
   </si>
   <si>
     <t xml:space="preserve"> DOOM</t>
   </si>
   <si>
-    <t>193,473</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 97</t>
   </si>
   <si>
     <t xml:space="preserve"> RimWorld</t>
   </si>
   <si>
-    <t>192,252</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 98</t>
   </si>
   <si>
     <t xml:space="preserve"> Forza Horizon 5</t>
   </si>
   <si>
-    <t>189,790</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 99</t>
   </si>
   <si>
     <t xml:space="preserve"> Factorio</t>
   </si>
   <si>
-    <t>188,102</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 100</t>
   </si>
   <si>
     <t xml:space="preserve"> Ready or Not</t>
   </si>
   <si>
-    <t>187,654</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 101</t>
   </si>
   <si>
     <t xml:space="preserve"> Squad</t>
   </si>
   <si>
-    <t>183,997</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 102</t>
   </si>
   <si>
     <t xml:space="preserve"> Divinity: Original Sin 2 - Definitive Edition</t>
   </si>
   <si>
-    <t>181,559</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 103</t>
   </si>
   <si>
     <t xml:space="preserve"> THE FINALS</t>
   </si>
   <si>
-    <t>179,616</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 104</t>
   </si>
   <si>
     <t xml:space="preserve"> Counter-Strike: Source</t>
   </si>
   <si>
-    <t>173,795</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 105</t>
   </si>
   <si>
     <t xml:space="preserve"> Halo Infinite</t>
   </si>
   <si>
-    <t>173,066</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 106</t>
   </si>
   <si>
     <t xml:space="preserve"> It Takes Two</t>
   </si>
   <si>
-    <t>172,050</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 107</t>
   </si>
   <si>
     <t xml:space="preserve"> Dying Light 2 Stay Human: Reloaded Edition</t>
   </si>
   <si>
-    <t>169,003</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
@@ -1210,153 +889,102 @@
     <t xml:space="preserve"> Stellaris</t>
   </si>
   <si>
-    <t>168,701</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 109</t>
   </si>
   <si>
     <t xml:space="preserve"> Cuphead</t>
   </si>
   <si>
-    <t>167,622</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 110</t>
   </si>
   <si>
     <t xml:space="preserve"> Muck</t>
   </si>
   <si>
-    <t>167,454</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 111</t>
   </si>
   <si>
     <t xml:space="preserve"> Satisfactory</t>
   </si>
   <si>
-    <t>166,253</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 112</t>
   </si>
   <si>
     <t xml:space="preserve"> Life is Strange - Episode 1</t>
   </si>
   <si>
-    <t>165,720</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 113</t>
   </si>
   <si>
     <t xml:space="preserve"> Starbound</t>
   </si>
   <si>
-    <t>163,735</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 114</t>
   </si>
   <si>
     <t xml:space="preserve"> Portal</t>
   </si>
   <si>
-    <t>163,248</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 115</t>
   </si>
   <si>
     <t xml:space="preserve"> Slay the Spire</t>
   </si>
   <si>
-    <t>162,498</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 116</t>
   </si>
   <si>
     <t xml:space="preserve"> Mount &amp; Blade: Warband</t>
   </si>
   <si>
-    <t>162,312</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 117</t>
   </si>
   <si>
     <t xml:space="preserve"> theHunter: Call of the Wild™</t>
   </si>
   <si>
-    <t>162,233</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 118</t>
   </si>
   <si>
     <t xml:space="preserve"> Grand Theft Auto IV: The Complete Edition</t>
   </si>
   <si>
-    <t>159,582</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 119</t>
   </si>
   <si>
     <t xml:space="preserve"> Resident Evil 2</t>
   </si>
   <si>
-    <t>159,080</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 120</t>
   </si>
   <si>
     <t xml:space="preserve"> American Truck Simulator</t>
   </si>
   <si>
-    <t>158,664</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 121</t>
   </si>
   <si>
     <t xml:space="preserve"> Far Cry® 5</t>
   </si>
   <si>
-    <t>158,420</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 122</t>
   </si>
   <si>
     <t xml:space="preserve"> Assassin's Creed® Odyssey</t>
   </si>
   <si>
-    <t>158,139</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 123</t>
   </si>
   <si>
     <t xml:space="preserve"> Battlefield™ 1</t>
   </si>
   <si>
-    <t>157,048</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 124</t>
   </si>
   <si>
     <t xml:space="preserve"> Starfield</t>
   </si>
   <si>
-    <t>156,850</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
@@ -1366,90 +994,60 @@
     <t xml:space="preserve"> Dead Cells</t>
   </si>
   <si>
-    <t>155,797</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 126</t>
   </si>
   <si>
     <t xml:space="preserve"> Crab Game</t>
   </si>
   <si>
-    <t>151,269</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 127</t>
   </si>
   <si>
     <t xml:space="preserve"> Age of Empires II: Definitive Edition</t>
   </si>
   <si>
-    <t>148,026</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 128</t>
   </si>
   <si>
     <t xml:space="preserve"> The Elder Scrolls® Online</t>
   </si>
   <si>
-    <t>147,872</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 129</t>
   </si>
   <si>
     <t xml:space="preserve"> STAR WARS Jedi: Fallen Order™</t>
   </si>
   <si>
-    <t>147,278</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 130</t>
   </si>
   <si>
     <t xml:space="preserve"> The Sims™ 4</t>
   </si>
   <si>
-    <t>147,151</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 131</t>
   </si>
   <si>
     <t xml:space="preserve"> Resident Evil 4</t>
   </si>
   <si>
-    <t>144,848</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 132</t>
   </si>
   <si>
     <t xml:space="preserve"> FOR HONOR™</t>
   </si>
   <si>
-    <t>144,029</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 133</t>
   </si>
   <si>
     <t xml:space="preserve"> Stray</t>
   </si>
   <si>
-    <t>143,926</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 134</t>
   </si>
   <si>
     <t xml:space="preserve"> World of Tanks Blitz</t>
   </si>
   <si>
-    <t>141,952</t>
-  </si>
-  <si>
     <t>79</t>
   </si>
   <si>
@@ -1459,9 +1057,6 @@
     <t xml:space="preserve"> World of Warships</t>
   </si>
   <si>
-    <t>141,611</t>
-  </si>
-  <si>
     <t>77</t>
   </si>
   <si>
@@ -1471,54 +1066,36 @@
     <t xml:space="preserve"> Darkest Dungeon®</t>
   </si>
   <si>
-    <t>139,312</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 137</t>
   </si>
   <si>
     <t xml:space="preserve"> BioShock Infinite</t>
   </si>
   <si>
-    <t>137,492</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 138</t>
   </si>
   <si>
     <t xml:space="preserve"> God of War</t>
   </si>
   <si>
-    <t>136,455</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 139</t>
   </si>
   <si>
     <t xml:space="preserve"> Borderlands 3</t>
   </si>
   <si>
-    <t>135,511</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 140</t>
   </si>
   <si>
     <t xml:space="preserve"> BattleBit Remastered</t>
   </si>
   <si>
-    <t>135,484</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 141</t>
   </si>
   <si>
     <t xml:space="preserve"> Assetto Corsa</t>
   </si>
   <si>
-    <t>132,794</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 142</t>
   </si>
   <si>
@@ -1528,234 +1105,156 @@
     <t>1998</t>
   </si>
   <si>
-    <t>131,837</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 143</t>
   </si>
   <si>
     <t xml:space="preserve"> NieR:Automata™</t>
   </si>
   <si>
-    <t>131,366</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 144</t>
   </si>
   <si>
     <t xml:space="preserve"> Kingdom Come: Deliverance</t>
   </si>
   <si>
-    <t>130,461</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 145</t>
   </si>
   <si>
     <t xml:space="preserve"> Plants vs</t>
   </si>
   <si>
-    <t>129,856</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 146</t>
   </si>
   <si>
     <t xml:space="preserve"> Ori and the Will of the Wisps</t>
   </si>
   <si>
-    <t>129,630</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 147</t>
   </si>
   <si>
     <t xml:space="preserve"> Devil May Cry 5</t>
   </si>
   <si>
-    <t>128,286</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 148</t>
   </si>
   <si>
     <t xml:space="preserve"> Space Engineers</t>
   </si>
   <si>
-    <t>128,019</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 149</t>
   </si>
   <si>
     <t xml:space="preserve"> Rise of the Tomb Raider™</t>
   </si>
   <si>
-    <t>127,546</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 150</t>
   </si>
   <si>
     <t xml:space="preserve"> Europa Universalis IV</t>
   </si>
   <si>
-    <t>126,839</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 151</t>
   </si>
   <si>
     <t xml:space="preserve"> Batman™: Arkham Knight</t>
   </si>
   <si>
-    <t>126,793</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 152</t>
   </si>
   <si>
     <t xml:space="preserve"> Totally Accurate Battle Simulator</t>
   </si>
   <si>
-    <t>126,499</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 153</t>
   </si>
   <si>
     <t xml:space="preserve"> Hell Let Loose</t>
   </si>
   <si>
-    <t>125,729</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 154</t>
   </si>
   <si>
     <t xml:space="preserve"> Insurgency</t>
   </si>
   <si>
-    <t>124,934</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 155</t>
   </si>
   <si>
     <t xml:space="preserve"> ULTRAKILL</t>
   </si>
   <si>
-    <t>123,711</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 156</t>
   </si>
   <si>
     <t xml:space="preserve"> Slime Rancher</t>
   </si>
   <si>
-    <t>123,640</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 157</t>
   </si>
   <si>
     <t xml:space="preserve"> Total War: WARHAMMER II</t>
   </si>
   <si>
-    <t>123,038</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 158</t>
   </si>
   <si>
     <t xml:space="preserve"> Warhammer: Vermintide 2</t>
   </si>
   <si>
-    <t>123,021</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 159</t>
   </si>
   <si>
     <t xml:space="preserve"> Killing Floor 2</t>
   </si>
   <si>
-    <t>122,750</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 160</t>
   </si>
   <si>
     <t xml:space="preserve"> Detroit: Become Human</t>
   </si>
   <si>
-    <t>122,613</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 161</t>
   </si>
   <si>
     <t xml:space="preserve"> Kerbal Space Program</t>
   </si>
   <si>
-    <t>122,611</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 162</t>
   </si>
   <si>
     <t xml:space="preserve"> Insurgency: Sandstorm</t>
   </si>
   <si>
-    <t>121,273</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 163</t>
   </si>
   <si>
     <t xml:space="preserve"> Helltaker</t>
   </si>
   <si>
-    <t>119,882</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 164</t>
   </si>
   <si>
     <t xml:space="preserve"> ASTRONEER</t>
   </si>
   <si>
-    <t>119,646</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 165</t>
   </si>
   <si>
     <t xml:space="preserve"> Stick Fight: The Game</t>
   </si>
   <si>
-    <t>119,280</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 166</t>
   </si>
   <si>
     <t xml:space="preserve"> Horizon Zero Dawn™ Complete Edition</t>
   </si>
   <si>
-    <t>118,751</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 167</t>
   </si>
   <si>
     <t xml:space="preserve"> Robocraft</t>
   </si>
   <si>
-    <t>118,519</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
@@ -1765,72 +1264,48 @@
     <t xml:space="preserve"> Oxygen Not Included</t>
   </si>
   <si>
-    <t>118,486</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 169</t>
   </si>
   <si>
     <t xml:space="preserve"> SMITE®</t>
   </si>
   <si>
-    <t>118,317</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 170</t>
   </si>
   <si>
     <t xml:space="preserve"> Need for Speed™ Heat</t>
   </si>
   <si>
-    <t>118,311</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 171</t>
   </si>
   <si>
     <t xml:space="preserve"> Just Cause™ 3</t>
   </si>
   <si>
-    <t>118,289</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 172</t>
   </si>
   <si>
     <t xml:space="preserve"> Stumble Guys</t>
   </si>
   <si>
-    <t>118,105</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 173</t>
   </si>
   <si>
     <t xml:space="preserve"> Outlast</t>
   </si>
   <si>
-    <t>118,022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 174</t>
   </si>
   <si>
     <t xml:space="preserve"> Inscryption</t>
   </si>
   <si>
-    <t>117,773</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 175</t>
   </si>
   <si>
     <t xml:space="preserve"> Mirror 2: Project X</t>
   </si>
   <si>
-    <t>117,563</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -1840,189 +1315,126 @@
     <t xml:space="preserve"> Castle Crashers®</t>
   </si>
   <si>
-    <t>116,785</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 177</t>
   </si>
   <si>
     <t xml:space="preserve"> Black Mesa</t>
   </si>
   <si>
-    <t>116,039</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 178</t>
   </si>
   <si>
     <t xml:space="preserve"> MultiVersus</t>
   </si>
   <si>
-    <t>115,838</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 179</t>
   </si>
   <si>
     <t xml:space="preserve"> Aimlabs</t>
   </si>
   <si>
-    <t>115,075</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 180</t>
   </si>
   <si>
     <t xml:space="preserve"> Fallout 76</t>
   </si>
   <si>
-    <t>113,938</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 181</t>
   </si>
   <si>
     <t xml:space="preserve"> Muse Dash</t>
   </si>
   <si>
-    <t>111,771</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 182</t>
   </si>
   <si>
     <t xml:space="preserve"> Splitgate</t>
   </si>
   <si>
-    <t>111,567</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 183</t>
   </si>
   <si>
     <t xml:space="preserve"> MORDHAU</t>
   </si>
   <si>
-    <t>111,298</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 184</t>
   </si>
   <si>
     <t xml:space="preserve"> Crusader Kings III</t>
   </si>
   <si>
-    <t>110,409</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 185</t>
   </si>
   <si>
     <t xml:space="preserve"> Resident Evil Village</t>
   </si>
   <si>
-    <t>109,928</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 186</t>
   </si>
   <si>
     <t xml:space="preserve"> DARK SOULS™: REMASTERED</t>
   </si>
   <si>
-    <t>109,345</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 187</t>
   </si>
   <si>
     <t xml:space="preserve"> Frostpunk</t>
   </si>
   <si>
-    <t>109,315</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 188</t>
   </si>
   <si>
     <t xml:space="preserve"> Scrap Mechanic</t>
   </si>
   <si>
-    <t>108,594</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 189</t>
   </si>
   <si>
     <t xml:space="preserve"> DAVE THE DIVER</t>
   </si>
   <si>
-    <t>108,208</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 190</t>
   </si>
   <si>
     <t xml:space="preserve"> Metro Exodus</t>
   </si>
   <si>
-    <t>107,668</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 191</t>
   </si>
   <si>
     <t xml:space="preserve"> Don't Starve</t>
   </si>
   <si>
-    <t>107,424</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 192</t>
   </si>
   <si>
     <t xml:space="preserve"> Company of Heroes 2</t>
   </si>
   <si>
-    <t>106,980</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 193</t>
   </si>
   <si>
     <t xml:space="preserve"> Total War: WARHAMMER III</t>
   </si>
   <si>
-    <t>106,051</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 194</t>
   </si>
   <si>
     <t xml:space="preserve"> DARK SOULS™ II: Scholar of the First Sin</t>
   </si>
   <si>
-    <t>105,689</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 195</t>
   </si>
   <si>
     <t xml:space="preserve"> The Long Dark</t>
   </si>
   <si>
-    <t>104,956</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 196</t>
   </si>
   <si>
     <t xml:space="preserve"> SCUM</t>
   </si>
   <si>
-    <t>104,950</t>
-  </si>
-  <si>
     <t>74</t>
   </si>
   <si>
@@ -2032,9 +1444,6 @@
     <t xml:space="preserve"> Celeste</t>
   </si>
   <si>
-    <t>104,544</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 198</t>
   </si>
   <si>
@@ -2044,162 +1453,108 @@
     <t>2003</t>
   </si>
   <si>
-    <t>103,608</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 199</t>
   </si>
   <si>
     <t xml:space="preserve"> Far Cry 3</t>
   </si>
   <si>
-    <t>103,093</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 200</t>
   </si>
   <si>
     <t xml:space="preserve"> Assassin's Creed® Origins</t>
   </si>
   <si>
-    <t>102,977</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 201</t>
   </si>
   <si>
     <t xml:space="preserve"> Little Nightmares</t>
   </si>
   <si>
-    <t>102,871</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 202</t>
   </si>
   <si>
     <t xml:space="preserve"> Conan Exiles</t>
   </si>
   <si>
-    <t>101,645</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 203</t>
   </si>
   <si>
     <t xml:space="preserve"> MONSTER HUNTER RISE</t>
   </si>
   <si>
-    <t>101,425</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 204</t>
   </si>
   <si>
     <t xml:space="preserve"> Total War: THREE KINGDOMS</t>
   </si>
   <si>
-    <t>100,771</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 205</t>
   </si>
   <si>
     <t xml:space="preserve"> Age of Empires II (Retired)</t>
   </si>
   <si>
-    <t>99,959</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 206</t>
   </si>
   <si>
     <t xml:space="preserve"> Middle-earth™: Shadow of War™</t>
   </si>
   <si>
-    <t>99,882</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 207</t>
   </si>
   <si>
     <t xml:space="preserve"> V Rising</t>
   </si>
   <si>
-    <t>99,757</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 208</t>
   </si>
   <si>
     <t xml:space="preserve"> Mortal Kombat 11</t>
   </si>
   <si>
-    <t>99,467</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 209</t>
   </si>
   <si>
     <t xml:space="preserve"> Disco Elysium - The Final Cut</t>
   </si>
   <si>
-    <t>98,104</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 210</t>
   </si>
   <si>
     <t xml:space="preserve"> This War of Mine</t>
   </si>
   <si>
-    <t>97,918</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 211</t>
   </si>
   <si>
     <t xml:space="preserve"> EA SPORTS FC™ 24</t>
   </si>
   <si>
-    <t>97,852</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 212</t>
   </si>
   <si>
     <t xml:space="preserve"> Last Epoch</t>
   </si>
   <si>
-    <t>97,840</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 213</t>
   </si>
   <si>
     <t xml:space="preserve"> Hotline Miami</t>
   </si>
   <si>
-    <t>97,800</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 214</t>
   </si>
   <si>
     <t xml:space="preserve"> Marvel’s Spider-Man Remastered</t>
   </si>
   <si>
-    <t>97,690</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 215</t>
   </si>
   <si>
     <t xml:space="preserve"> Warhammer 40,000: Darktide</t>
   </si>
   <si>
-    <t>97,477</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
@@ -2209,313 +1564,208 @@
     <t xml:space="preserve"> Content Warning</t>
   </si>
   <si>
-    <t>96,542</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 217</t>
   </si>
   <si>
     <t xml:space="preserve"> XCOM® 2</t>
   </si>
   <si>
-    <t>96,310</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 218</t>
   </si>
   <si>
     <t xml:space="preserve"> Dragon's Dogma 2</t>
   </si>
   <si>
-    <t>95,991</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 219</t>
   </si>
   <si>
     <t xml:space="preserve"> Gunfire Reborn</t>
   </si>
   <si>
-    <t>94,979</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 220</t>
   </si>
   <si>
     <t xml:space="preserve"> Elite Dangerous</t>
   </si>
   <si>
-    <t>94,362</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 221</t>
   </si>
   <si>
     <t xml:space="preserve"> Teardown</t>
   </si>
   <si>
-    <t>94,328</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 222</t>
   </si>
   <si>
     <t xml:space="preserve"> Grim Dawn</t>
   </si>
   <si>
-    <t>93,622</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 223</t>
   </si>
   <si>
     <t xml:space="preserve"> Deceit</t>
   </si>
   <si>
-    <t>93,067</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 224</t>
   </si>
   <si>
     <t xml:space="preserve"> METAL GEAR SOLID V: THE PHANTOM PAIN</t>
   </si>
   <si>
-    <t>93,007</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 225</t>
   </si>
   <si>
     <t xml:space="preserve"> Trove</t>
   </si>
   <si>
-    <t>92,034</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 226</t>
   </si>
   <si>
     <t xml:space="preserve"> Tom Clancy’s The Division™</t>
   </si>
   <si>
-    <t>91,140</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 227</t>
   </si>
   <si>
     <t xml:space="preserve"> TEKKEN 7</t>
   </si>
   <si>
-    <t>90,807</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 228</t>
   </si>
   <si>
     <t xml:space="preserve"> Half-Life: Alyx</t>
   </si>
   <si>
-    <t>90,762</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 229</t>
   </si>
   <si>
     <t xml:space="preserve"> Dota Underlords</t>
   </si>
   <si>
-    <t>90,738</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 230</t>
   </si>
   <si>
     <t xml:space="preserve"> Tom Clancy's Ghost Recon® Wildlands</t>
   </si>
   <si>
-    <t>90,091</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 231</t>
   </si>
   <si>
     <t xml:space="preserve"> Subnautica: Below Zero</t>
   </si>
   <si>
-    <t>89,948</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 232</t>
   </si>
   <si>
     <t xml:space="preserve"> Resident Evil 7 Biohazard</t>
   </si>
   <si>
-    <t>88,395</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 233</t>
   </si>
   <si>
     <t xml:space="preserve"> House Flipper</t>
   </si>
   <si>
-    <t>88,001</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 234</t>
   </si>
   <si>
     <t xml:space="preserve"> Days Gone</t>
   </si>
   <si>
-    <t>87,291</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 235</t>
   </si>
   <si>
     <t xml:space="preserve"> Kenshi</t>
   </si>
   <si>
-    <t>86,741</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 236</t>
   </si>
   <si>
     <t xml:space="preserve"> Mirror</t>
   </si>
   <si>
-    <t>86,460</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 237</t>
   </si>
   <si>
     <t xml:space="preserve"> Middle-earth™: Shadow of Mordor™</t>
   </si>
   <si>
-    <t>86,283</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 238</t>
   </si>
   <si>
     <t xml:space="preserve"> Totally Accurate Battlegrounds</t>
   </si>
   <si>
-    <t>85,350</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 239</t>
   </si>
   <si>
     <t xml:space="preserve"> NARUTO SHIPPUDEN: Ultimate Ninja STORM 4</t>
   </si>
   <si>
-    <t>84,893</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 240</t>
   </si>
   <si>
     <t xml:space="preserve"> Metro 2033 Redux</t>
   </si>
   <si>
-    <t>84,711</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 241</t>
   </si>
   <si>
     <t xml:space="preserve"> Total War: ROME II - Emperor Edition</t>
   </si>
   <si>
-    <t>84,266</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 242</t>
   </si>
   <si>
     <t xml:space="preserve"> The Witcher 2: Assassins of Kings Enhanced Edition</t>
   </si>
   <si>
-    <t>84,045</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 243</t>
   </si>
   <si>
     <t xml:space="preserve"> Resident Evil 3</t>
   </si>
   <si>
-    <t>84,000</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 244</t>
   </si>
   <si>
     <t xml:space="preserve"> Cult of the Lamb</t>
   </si>
   <si>
-    <t>82,578</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 245</t>
   </si>
   <si>
     <t xml:space="preserve"> Warface: Clutch</t>
   </si>
   <si>
-    <t>82,433</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 246</t>
   </si>
   <si>
     <t xml:space="preserve"> The Isle</t>
   </si>
   <si>
-    <t>82,196</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 247</t>
   </si>
   <si>
     <t xml:space="preserve"> Black Squad</t>
   </si>
   <si>
-    <t>81,545</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 248</t>
   </si>
   <si>
     <t xml:space="preserve"> Black Desert</t>
   </si>
   <si>
-    <t>81,316</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 249</t>
   </si>
   <si>
     <t xml:space="preserve"> Planet Zoo</t>
   </si>
   <si>
-    <t>81,267</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 250</t>
   </si>
   <si>
     <t xml:space="preserve"> Enter the Gungeon</t>
-  </si>
-  <si>
-    <t>80,740</t>
   </si>
 </sst>
 </file>
@@ -2857,12 +2107,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2898,4991 +2147,4991 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>8259902</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>2414161</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>2299720</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
+      <c r="E5">
+        <v>1855569</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>1322821</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1313905</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>1114499</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1097297</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>1093664</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>947875</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>938657</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>898205</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>881467</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>792473</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
-        <v>80</v>
+      <c r="E16">
+        <v>791558</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>762381</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <v>747698</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" t="s">
-        <v>92</v>
+        <v>71</v>
+      </c>
+      <c r="E19">
+        <v>741833</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <v>701738</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>700000</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>103</v>
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>688409</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>107</v>
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>662605</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>111</v>
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>656435</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" t="s">
-        <v>116</v>
+        <v>92</v>
+      </c>
+      <c r="E25">
+        <v>643099</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" t="s">
-        <v>120</v>
+        <v>95</v>
+      </c>
+      <c r="E26">
+        <v>610139</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" t="s">
-        <v>123</v>
+        <v>95</v>
+      </c>
+      <c r="E27">
+        <v>607643</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
-        <v>126</v>
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>606086</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>131</v>
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>594004</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" t="s">
-        <v>134</v>
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>555140</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>137</v>
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>544764</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" t="s">
-        <v>141</v>
+        <v>71</v>
+      </c>
+      <c r="E32">
+        <v>464454</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" t="s">
-        <v>145</v>
+        <v>113</v>
+      </c>
+      <c r="E33">
+        <v>463898</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" t="s">
-        <v>149</v>
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>454190</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>154</v>
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>424315</v>
       </c>
       <c r="F35" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" t="s">
-        <v>158</v>
+        <v>92</v>
+      </c>
+      <c r="E36">
+        <v>423293</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" t="s">
-        <v>161</v>
+        <v>28</v>
+      </c>
+      <c r="E37">
+        <v>403824</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" t="s">
-        <v>165</v>
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>398352</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" t="s">
-        <v>169</v>
+        <v>71</v>
+      </c>
+      <c r="E39">
+        <v>390048</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" t="s">
-        <v>172</v>
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>375256</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>175</v>
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>370241</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" t="s">
-        <v>179</v>
+        <v>138</v>
+      </c>
+      <c r="E42">
+        <v>367480</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" t="s">
-        <v>182</v>
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>365908</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" t="s">
-        <v>185</v>
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>345214</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" t="s">
-        <v>188</v>
+        <v>52</v>
+      </c>
+      <c r="E45">
+        <v>337656</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" t="s">
-        <v>191</v>
+        <v>56</v>
+      </c>
+      <c r="E46">
+        <v>334927</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" t="s">
-        <v>194</v>
+        <v>71</v>
+      </c>
+      <c r="E47">
+        <v>324051</v>
       </c>
       <c r="F47" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" t="s">
-        <v>198</v>
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>323911</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" t="s">
-        <v>201</v>
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>321491</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" t="s">
-        <v>204</v>
+        <v>28</v>
+      </c>
+      <c r="E50">
+        <v>316162</v>
       </c>
       <c r="F50" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" t="s">
-        <v>207</v>
+        <v>56</v>
+      </c>
+      <c r="E51">
+        <v>315432</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" t="s">
-        <v>210</v>
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>314479</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" t="s">
-        <v>213</v>
+        <v>71</v>
+      </c>
+      <c r="E53">
+        <v>313900</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" t="s">
-        <v>217</v>
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <v>306664</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" t="s">
-        <v>220</v>
+        <v>71</v>
+      </c>
+      <c r="E55">
+        <v>305400</v>
       </c>
       <c r="F55" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" t="s">
-        <v>223</v>
+        <v>71</v>
+      </c>
+      <c r="E56">
+        <v>298396</v>
       </c>
       <c r="F56" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" t="s">
-        <v>226</v>
+        <v>138</v>
+      </c>
+      <c r="E57">
+        <v>297523</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" t="s">
-        <v>229</v>
+        <v>95</v>
+      </c>
+      <c r="E58">
+        <v>294553</v>
       </c>
       <c r="F58" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" t="s">
-        <v>232</v>
+        <v>92</v>
+      </c>
+      <c r="E59">
+        <v>290061</v>
       </c>
       <c r="F59" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" t="s">
-        <v>236</v>
+        <v>113</v>
+      </c>
+      <c r="E60">
+        <v>288322</v>
       </c>
       <c r="F60" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
-      <c r="E61" t="s">
-        <v>240</v>
+      <c r="E61">
+        <v>285170</v>
       </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" t="s">
-        <v>243</v>
+        <v>52</v>
+      </c>
+      <c r="E62">
+        <v>282809</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="B63" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
-      </c>
-      <c r="E63" t="s">
-        <v>246</v>
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>280879</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" t="s">
-        <v>249</v>
+        <v>113</v>
+      </c>
+      <c r="E64">
+        <v>279842</v>
       </c>
       <c r="F64" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" t="s">
-        <v>253</v>
+        <v>92</v>
+      </c>
+      <c r="E65">
+        <v>277161</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
-      </c>
-      <c r="E66" t="s">
-        <v>256</v>
+        <v>113</v>
+      </c>
+      <c r="E66">
+        <v>273101</v>
       </c>
       <c r="F66" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="B67" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" t="s">
-        <v>260</v>
+        <v>19</v>
+      </c>
+      <c r="E67">
+        <v>270768</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" t="s">
-        <v>263</v>
+        <v>52</v>
+      </c>
+      <c r="E68">
+        <v>266552</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" t="s">
-        <v>266</v>
+        <v>24</v>
+      </c>
+      <c r="E69">
+        <v>264994</v>
       </c>
       <c r="F69" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" t="s">
-        <v>269</v>
+        <v>24</v>
+      </c>
+      <c r="E70">
+        <v>259553</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="B71" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" t="s">
-        <v>272</v>
+        <v>95</v>
+      </c>
+      <c r="E71">
+        <v>256050</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
-      </c>
-      <c r="E72" t="s">
-        <v>275</v>
+        <v>48</v>
+      </c>
+      <c r="E72">
+        <v>248841</v>
       </c>
       <c r="F72" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="B73" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
-      </c>
-      <c r="E73" t="s">
-        <v>278</v>
+        <v>113</v>
+      </c>
+      <c r="E73">
+        <v>241247</v>
       </c>
       <c r="F73" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
-      </c>
-      <c r="E74" t="s">
-        <v>282</v>
+        <v>209</v>
+      </c>
+      <c r="E74">
+        <v>240074</v>
       </c>
       <c r="F74" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" t="s">
-        <v>285</v>
+        <v>24</v>
+      </c>
+      <c r="E75">
+        <v>236610</v>
       </c>
       <c r="F75" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" t="s">
-        <v>288</v>
+        <v>19</v>
+      </c>
+      <c r="E76">
+        <v>235213</v>
       </c>
       <c r="F76" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
-      </c>
-      <c r="E77" t="s">
-        <v>291</v>
+        <v>48</v>
+      </c>
+      <c r="E77">
+        <v>233964</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>87</v>
-      </c>
-      <c r="E78" t="s">
-        <v>294</v>
+        <v>71</v>
+      </c>
+      <c r="E78">
+        <v>231036</v>
       </c>
       <c r="F78" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>295</v>
+        <v>218</v>
       </c>
       <c r="B79" t="s">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
-      </c>
-      <c r="E79" t="s">
-        <v>297</v>
+        <v>95</v>
+      </c>
+      <c r="E79">
+        <v>230582</v>
       </c>
       <c r="F79" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" t="s">
-        <v>300</v>
+        <v>19</v>
+      </c>
+      <c r="E80">
+        <v>224939</v>
       </c>
       <c r="F80" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" t="s">
-        <v>304</v>
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>223383</v>
       </c>
       <c r="F81" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" t="s">
-        <v>308</v>
+        <v>92</v>
+      </c>
+      <c r="E82">
+        <v>223296</v>
       </c>
       <c r="F82" t="s">
-        <v>309</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="B83" t="s">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
-      </c>
-      <c r="E83" t="s">
-        <v>312</v>
+        <v>40</v>
+      </c>
+      <c r="E83">
+        <v>222952</v>
       </c>
       <c r="F83" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="B84" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
-      </c>
-      <c r="E84" t="s">
-        <v>316</v>
+        <v>95</v>
+      </c>
+      <c r="E84">
+        <v>221302</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="B85" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>319</v>
-      </c>
-      <c r="E85" t="s">
-        <v>320</v>
+        <v>236</v>
+      </c>
+      <c r="E85">
+        <v>215482</v>
       </c>
       <c r="F85" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
       <c r="B86" t="s">
-        <v>322</v>
+        <v>238</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
-      </c>
-      <c r="E86" t="s">
-        <v>323</v>
+        <v>40</v>
+      </c>
+      <c r="E86">
+        <v>205131</v>
       </c>
       <c r="F86" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="B87" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" t="s">
-        <v>327</v>
+        <v>24</v>
+      </c>
+      <c r="E87">
+        <v>203646</v>
       </c>
       <c r="F87" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="B88" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
-      </c>
-      <c r="E88" t="s">
-        <v>331</v>
+        <v>56</v>
+      </c>
+      <c r="E88">
+        <v>202907</v>
       </c>
       <c r="F88" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>332</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
-        <v>333</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
-      </c>
-      <c r="E89" t="s">
-        <v>334</v>
+        <v>71</v>
+      </c>
+      <c r="E89">
+        <v>202864</v>
       </c>
       <c r="F89" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="B90" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>67</v>
-      </c>
-      <c r="E90" t="s">
-        <v>337</v>
+        <v>56</v>
+      </c>
+      <c r="E90">
+        <v>202664</v>
       </c>
       <c r="F90" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="B91" t="s">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" t="s">
-        <v>340</v>
+        <v>14</v>
+      </c>
+      <c r="E91">
+        <v>201586</v>
       </c>
       <c r="F91" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>341</v>
+        <v>251</v>
       </c>
       <c r="B92" t="s">
-        <v>342</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
-        <v>57</v>
-      </c>
-      <c r="E92" t="s">
-        <v>343</v>
+        <v>48</v>
+      </c>
+      <c r="E92">
+        <v>200388</v>
       </c>
       <c r="F92" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>344</v>
+        <v>253</v>
       </c>
       <c r="B93" t="s">
-        <v>345</v>
+        <v>254</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D93" t="s">
-        <v>319</v>
-      </c>
-      <c r="E93" t="s">
-        <v>346</v>
+        <v>236</v>
+      </c>
+      <c r="E93">
+        <v>198884</v>
       </c>
       <c r="F93" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>347</v>
+        <v>255</v>
       </c>
       <c r="B94" t="s">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D94" t="s">
-        <v>349</v>
-      </c>
-      <c r="E94" t="s">
-        <v>350</v>
+        <v>257</v>
+      </c>
+      <c r="E94">
+        <v>198431</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>351</v>
+        <v>258</v>
       </c>
       <c r="B95" t="s">
-        <v>352</v>
+        <v>259</v>
       </c>
       <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
         <v>14</v>
       </c>
-      <c r="D95" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" t="s">
-        <v>353</v>
+      <c r="E95">
+        <v>197257</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="B96" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="C96" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>62</v>
-      </c>
-      <c r="E96" t="s">
-        <v>356</v>
+        <v>52</v>
+      </c>
+      <c r="E96">
+        <v>193829</v>
       </c>
       <c r="F96" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>357</v>
+        <v>262</v>
       </c>
       <c r="B97" t="s">
-        <v>358</v>
+        <v>263</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>87</v>
-      </c>
-      <c r="E97" t="s">
-        <v>359</v>
+        <v>71</v>
+      </c>
+      <c r="E97">
+        <v>193473</v>
       </c>
       <c r="F97" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>360</v>
+        <v>264</v>
       </c>
       <c r="B98" t="s">
-        <v>361</v>
+        <v>265</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
-      </c>
-      <c r="E98" t="s">
-        <v>362</v>
+        <v>40</v>
+      </c>
+      <c r="E98">
+        <v>192252</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>363</v>
+        <v>266</v>
       </c>
       <c r="B99" t="s">
-        <v>364</v>
+        <v>267</v>
       </c>
       <c r="C99" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
-      </c>
-      <c r="E99" t="s">
-        <v>365</v>
+        <v>113</v>
+      </c>
+      <c r="E99">
+        <v>189790</v>
       </c>
       <c r="F99" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>366</v>
+        <v>268</v>
       </c>
       <c r="B100" t="s">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" t="s">
-        <v>368</v>
+        <v>52</v>
+      </c>
+      <c r="E100">
+        <v>188102</v>
       </c>
       <c r="F100" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
       <c r="B101" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>115</v>
-      </c>
-      <c r="E101" t="s">
-        <v>371</v>
+        <v>92</v>
+      </c>
+      <c r="E101">
+        <v>187654</v>
       </c>
       <c r="F101" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="B102" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="C102" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D102" t="s">
-        <v>62</v>
-      </c>
-      <c r="E102" t="s">
-        <v>374</v>
+        <v>52</v>
+      </c>
+      <c r="E102">
+        <v>183997</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>375</v>
+        <v>274</v>
       </c>
       <c r="B103" t="s">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="C103" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" t="s">
-        <v>377</v>
+        <v>14</v>
+      </c>
+      <c r="E103">
+        <v>181559</v>
       </c>
       <c r="F103" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>378</v>
+        <v>276</v>
       </c>
       <c r="B104" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>115</v>
-      </c>
-      <c r="E104" t="s">
-        <v>380</v>
+        <v>92</v>
+      </c>
+      <c r="E104">
+        <v>179616</v>
       </c>
       <c r="F104" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>381</v>
+        <v>278</v>
       </c>
       <c r="B105" t="s">
-        <v>382</v>
+        <v>279</v>
       </c>
       <c r="C105" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D105" t="s">
-        <v>349</v>
-      </c>
-      <c r="E105" t="s">
-        <v>383</v>
+        <v>257</v>
+      </c>
+      <c r="E105">
+        <v>173795</v>
       </c>
       <c r="F105" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>384</v>
+        <v>280</v>
       </c>
       <c r="B106" t="s">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="C106" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D106" t="s">
-        <v>144</v>
-      </c>
-      <c r="E106" t="s">
-        <v>386</v>
+        <v>113</v>
+      </c>
+      <c r="E106">
+        <v>173066</v>
       </c>
       <c r="F106" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
       <c r="B107" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
       <c r="C107" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D107" t="s">
-        <v>144</v>
-      </c>
-      <c r="E107" t="s">
-        <v>389</v>
+        <v>113</v>
+      </c>
+      <c r="E107">
+        <v>172050</v>
       </c>
       <c r="F107" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="B108" t="s">
-        <v>391</v>
+        <v>285</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D108" t="s">
-        <v>57</v>
-      </c>
-      <c r="E108" t="s">
-        <v>392</v>
+        <v>48</v>
+      </c>
+      <c r="E108">
+        <v>169003</v>
       </c>
       <c r="F108" t="s">
-        <v>393</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
       <c r="B109" t="s">
-        <v>395</v>
+        <v>288</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>87</v>
-      </c>
-      <c r="E109" t="s">
-        <v>396</v>
+        <v>71</v>
+      </c>
+      <c r="E109">
+        <v>168701</v>
       </c>
       <c r="F109" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="B110" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" t="s">
-        <v>399</v>
+        <v>14</v>
+      </c>
+      <c r="E110">
+        <v>167622</v>
       </c>
       <c r="F110" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>400</v>
+        <v>291</v>
       </c>
       <c r="B111" t="s">
-        <v>401</v>
+        <v>292</v>
       </c>
       <c r="C111" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
-      </c>
-      <c r="E111" t="s">
-        <v>402</v>
+        <v>113</v>
+      </c>
+      <c r="E111">
+        <v>167454</v>
       </c>
       <c r="F111" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>403</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s">
-        <v>404</v>
+        <v>294</v>
       </c>
       <c r="C112" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D112" t="s">
-        <v>62</v>
-      </c>
-      <c r="E112" t="s">
-        <v>405</v>
+        <v>52</v>
+      </c>
+      <c r="E112">
+        <v>166253</v>
       </c>
       <c r="F112" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>406</v>
+        <v>295</v>
       </c>
       <c r="B113" t="s">
-        <v>407</v>
+        <v>296</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" t="s">
-        <v>408</v>
+        <v>24</v>
+      </c>
+      <c r="E113">
+        <v>165720</v>
       </c>
       <c r="F113" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>409</v>
+        <v>297</v>
       </c>
       <c r="B114" t="s">
-        <v>410</v>
+        <v>298</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>87</v>
-      </c>
-      <c r="E114" t="s">
-        <v>411</v>
+        <v>71</v>
+      </c>
+      <c r="E114">
+        <v>163735</v>
       </c>
       <c r="F114" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>412</v>
+        <v>299</v>
       </c>
       <c r="B115" t="s">
-        <v>413</v>
+        <v>300</v>
       </c>
       <c r="C115" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D115" t="s">
-        <v>42</v>
-      </c>
-      <c r="E115" t="s">
-        <v>414</v>
+        <v>36</v>
+      </c>
+      <c r="E115">
+        <v>163248</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>415</v>
+        <v>301</v>
       </c>
       <c r="B116" t="s">
-        <v>416</v>
+        <v>302</v>
       </c>
       <c r="C116" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D116" t="s">
-        <v>119</v>
-      </c>
-      <c r="E116" t="s">
-        <v>417</v>
+        <v>95</v>
+      </c>
+      <c r="E116">
+        <v>162498</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>418</v>
+        <v>303</v>
       </c>
       <c r="B117" t="s">
-        <v>419</v>
+        <v>304</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D117" t="s">
-        <v>319</v>
-      </c>
-      <c r="E117" t="s">
-        <v>420</v>
+        <v>236</v>
+      </c>
+      <c r="E117">
+        <v>162312</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>421</v>
+        <v>305</v>
       </c>
       <c r="B118" t="s">
-        <v>422</v>
+        <v>306</v>
       </c>
       <c r="C118" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" t="s">
-        <v>423</v>
+        <v>14</v>
+      </c>
+      <c r="E118">
+        <v>162233</v>
       </c>
       <c r="F118" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>424</v>
+        <v>307</v>
       </c>
       <c r="B119" t="s">
-        <v>425</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D119" t="s">
-        <v>62</v>
-      </c>
-      <c r="E119" t="s">
-        <v>426</v>
+        <v>52</v>
+      </c>
+      <c r="E119">
+        <v>159582</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>427</v>
+        <v>309</v>
       </c>
       <c r="B120" t="s">
-        <v>428</v>
+        <v>310</v>
       </c>
       <c r="C120" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D120" t="s">
-        <v>119</v>
-      </c>
-      <c r="E120" t="s">
-        <v>429</v>
+        <v>95</v>
+      </c>
+      <c r="E120">
+        <v>159080</v>
       </c>
       <c r="F120" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>430</v>
+        <v>311</v>
       </c>
       <c r="B121" t="s">
-        <v>431</v>
+        <v>312</v>
       </c>
       <c r="C121" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
-        <v>87</v>
-      </c>
-      <c r="E121" t="s">
-        <v>432</v>
+        <v>71</v>
+      </c>
+      <c r="E121">
+        <v>158664</v>
       </c>
       <c r="F121" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="B122" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="C122" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D122" t="s">
-        <v>47</v>
-      </c>
-      <c r="E122" t="s">
-        <v>435</v>
+        <v>40</v>
+      </c>
+      <c r="E122">
+        <v>158420</v>
       </c>
       <c r="F122" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>436</v>
+        <v>315</v>
       </c>
       <c r="B123" t="s">
-        <v>437</v>
+        <v>316</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D123" t="s">
-        <v>47</v>
-      </c>
-      <c r="E123" t="s">
-        <v>438</v>
+        <v>40</v>
+      </c>
+      <c r="E123">
+        <v>158139</v>
       </c>
       <c r="F123" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>439</v>
+        <v>317</v>
       </c>
       <c r="B124" t="s">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="C124" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D124" t="s">
-        <v>87</v>
-      </c>
-      <c r="E124" t="s">
-        <v>441</v>
+        <v>71</v>
+      </c>
+      <c r="E124">
+        <v>157048</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>442</v>
+        <v>319</v>
       </c>
       <c r="B125" t="s">
-        <v>443</v>
+        <v>320</v>
       </c>
       <c r="C125" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D125" t="s">
-        <v>115</v>
-      </c>
-      <c r="E125" t="s">
-        <v>444</v>
+        <v>92</v>
+      </c>
+      <c r="E125">
+        <v>156850</v>
       </c>
       <c r="F125" t="s">
-        <v>445</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>446</v>
+        <v>322</v>
       </c>
       <c r="B126" t="s">
-        <v>447</v>
+        <v>323</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>47</v>
-      </c>
-      <c r="E126" t="s">
-        <v>448</v>
+        <v>40</v>
+      </c>
+      <c r="E126">
+        <v>155797</v>
       </c>
       <c r="F126" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>449</v>
+        <v>324</v>
       </c>
       <c r="B127" t="s">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="C127" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>144</v>
-      </c>
-      <c r="E127" t="s">
-        <v>451</v>
+        <v>113</v>
+      </c>
+      <c r="E127">
+        <v>151269</v>
       </c>
       <c r="F127" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>452</v>
+        <v>326</v>
       </c>
       <c r="B128" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
       <c r="C128" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D128" t="s">
-        <v>119</v>
-      </c>
-      <c r="E128" t="s">
-        <v>454</v>
+        <v>95</v>
+      </c>
+      <c r="E128">
+        <v>148026</v>
       </c>
       <c r="F128" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>455</v>
+        <v>328</v>
       </c>
       <c r="B129" t="s">
-        <v>456</v>
+        <v>329</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>178</v>
-      </c>
-      <c r="E129" t="s">
-        <v>457</v>
+        <v>138</v>
+      </c>
+      <c r="E129">
+        <v>147872</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>458</v>
+        <v>330</v>
       </c>
       <c r="B130" t="s">
-        <v>459</v>
+        <v>331</v>
       </c>
       <c r="C130" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D130" t="s">
-        <v>119</v>
-      </c>
-      <c r="E130" t="s">
-        <v>460</v>
+        <v>95</v>
+      </c>
+      <c r="E130">
+        <v>147278</v>
       </c>
       <c r="F130" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>461</v>
+        <v>332</v>
       </c>
       <c r="B131" t="s">
-        <v>462</v>
+        <v>333</v>
       </c>
       <c r="C131" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D131" t="s">
-        <v>178</v>
-      </c>
-      <c r="E131" t="s">
-        <v>463</v>
+        <v>138</v>
+      </c>
+      <c r="E131">
+        <v>147151</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>464</v>
+        <v>334</v>
       </c>
       <c r="B132" t="s">
-        <v>465</v>
+        <v>335</v>
       </c>
       <c r="C132" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D132" t="s">
-        <v>115</v>
-      </c>
-      <c r="E132" t="s">
-        <v>466</v>
+        <v>92</v>
+      </c>
+      <c r="E132">
+        <v>144848</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>467</v>
+        <v>336</v>
       </c>
       <c r="B133" t="s">
-        <v>468</v>
+        <v>337</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D133" t="s">
-        <v>67</v>
-      </c>
-      <c r="E133" t="s">
-        <v>469</v>
+        <v>56</v>
+      </c>
+      <c r="E133">
+        <v>144029</v>
       </c>
       <c r="F133" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>470</v>
+        <v>338</v>
       </c>
       <c r="B134" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D134" t="s">
-        <v>57</v>
-      </c>
-      <c r="E134" t="s">
-        <v>472</v>
+        <v>48</v>
+      </c>
+      <c r="E134">
+        <v>143926</v>
       </c>
       <c r="F134" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>473</v>
+        <v>340</v>
       </c>
       <c r="B135" t="s">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="C135" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D135" t="s">
-        <v>87</v>
-      </c>
-      <c r="E135" t="s">
-        <v>475</v>
+        <v>71</v>
+      </c>
+      <c r="E135">
+        <v>141952</v>
       </c>
       <c r="F135" t="s">
-        <v>476</v>
+        <v>342</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>477</v>
+        <v>343</v>
       </c>
       <c r="B136" t="s">
-        <v>478</v>
+        <v>344</v>
       </c>
       <c r="C136" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136" t="s">
-        <v>479</v>
+        <v>14</v>
+      </c>
+      <c r="E136">
+        <v>141611</v>
       </c>
       <c r="F136" t="s">
-        <v>480</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>481</v>
+        <v>346</v>
       </c>
       <c r="B137" t="s">
-        <v>482</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D137" t="s">
-        <v>87</v>
-      </c>
-      <c r="E137" t="s">
-        <v>483</v>
+        <v>71</v>
+      </c>
+      <c r="E137">
+        <v>139312</v>
       </c>
       <c r="F137" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>484</v>
+        <v>348</v>
       </c>
       <c r="B138" t="s">
-        <v>485</v>
+        <v>349</v>
       </c>
       <c r="C138" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D138" t="s">
-        <v>21</v>
-      </c>
-      <c r="E138" t="s">
-        <v>486</v>
+        <v>19</v>
+      </c>
+      <c r="E138">
+        <v>137492</v>
       </c>
       <c r="F138" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>487</v>
+        <v>350</v>
       </c>
       <c r="B139" t="s">
-        <v>488</v>
+        <v>351</v>
       </c>
       <c r="C139" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D139" t="s">
-        <v>57</v>
-      </c>
-      <c r="E139" t="s">
-        <v>489</v>
+        <v>48</v>
+      </c>
+      <c r="E139">
+        <v>136455</v>
       </c>
       <c r="F139" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>490</v>
+        <v>352</v>
       </c>
       <c r="B140" t="s">
-        <v>491</v>
+        <v>353</v>
       </c>
       <c r="C140" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D140" t="s">
-        <v>62</v>
-      </c>
-      <c r="E140" t="s">
-        <v>492</v>
+        <v>52</v>
+      </c>
+      <c r="E140">
+        <v>135511</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>493</v>
+        <v>354</v>
       </c>
       <c r="B141" t="s">
-        <v>494</v>
+        <v>355</v>
       </c>
       <c r="C141" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D141" t="s">
-        <v>115</v>
-      </c>
-      <c r="E141" t="s">
-        <v>495</v>
+        <v>92</v>
+      </c>
+      <c r="E141">
+        <v>135484</v>
       </c>
       <c r="F141" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>496</v>
+        <v>356</v>
       </c>
       <c r="B142" t="s">
-        <v>497</v>
+        <v>357</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>178</v>
-      </c>
-      <c r="E142" t="s">
-        <v>498</v>
+        <v>138</v>
+      </c>
+      <c r="E142">
+        <v>132794</v>
       </c>
       <c r="F142" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>499</v>
+        <v>358</v>
       </c>
       <c r="B143" t="s">
-        <v>500</v>
+        <v>359</v>
       </c>
       <c r="C143" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D143" t="s">
-        <v>501</v>
-      </c>
-      <c r="E143" t="s">
-        <v>502</v>
+        <v>360</v>
+      </c>
+      <c r="E143">
+        <v>131837</v>
       </c>
       <c r="F143" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>503</v>
+        <v>361</v>
       </c>
       <c r="B144" t="s">
-        <v>504</v>
+        <v>362</v>
       </c>
       <c r="C144" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" t="s">
-        <v>505</v>
+        <v>14</v>
+      </c>
+      <c r="E144">
+        <v>131366</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="B145" t="s">
-        <v>507</v>
+        <v>364</v>
       </c>
       <c r="C145" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D145" t="s">
-        <v>47</v>
-      </c>
-      <c r="E145" t="s">
-        <v>508</v>
+        <v>40</v>
+      </c>
+      <c r="E145">
+        <v>130461</v>
       </c>
       <c r="F145" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>509</v>
+        <v>365</v>
       </c>
       <c r="B146" t="s">
-        <v>510</v>
+        <v>366</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
-      </c>
-      <c r="E146" t="s">
-        <v>511</v>
+        <v>60</v>
+      </c>
+      <c r="E146">
+        <v>129856</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>512</v>
+        <v>367</v>
       </c>
       <c r="B147" t="s">
-        <v>513</v>
+        <v>368</v>
       </c>
       <c r="C147" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D147" t="s">
-        <v>62</v>
-      </c>
-      <c r="E147" t="s">
-        <v>514</v>
+        <v>52</v>
+      </c>
+      <c r="E147">
+        <v>129630</v>
       </c>
       <c r="F147" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>515</v>
+        <v>369</v>
       </c>
       <c r="B148" t="s">
-        <v>516</v>
+        <v>370</v>
       </c>
       <c r="C148" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D148" t="s">
-        <v>119</v>
-      </c>
-      <c r="E148" t="s">
-        <v>517</v>
+        <v>95</v>
+      </c>
+      <c r="E148">
+        <v>128286</v>
       </c>
       <c r="F148" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>518</v>
+        <v>371</v>
       </c>
       <c r="B149" t="s">
-        <v>519</v>
+        <v>372</v>
       </c>
       <c r="C149" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D149" t="s">
-        <v>119</v>
-      </c>
-      <c r="E149" t="s">
-        <v>520</v>
+        <v>95</v>
+      </c>
+      <c r="E149">
+        <v>128019</v>
       </c>
       <c r="F149" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>521</v>
+        <v>373</v>
       </c>
       <c r="B150" t="s">
-        <v>522</v>
+        <v>374</v>
       </c>
       <c r="C150" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D150" t="s">
-        <v>87</v>
-      </c>
-      <c r="E150" t="s">
-        <v>523</v>
+        <v>71</v>
+      </c>
+      <c r="E150">
+        <v>127546</v>
       </c>
       <c r="F150" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>524</v>
+        <v>375</v>
       </c>
       <c r="B151" t="s">
-        <v>525</v>
+        <v>376</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>21</v>
-      </c>
-      <c r="E151" t="s">
-        <v>526</v>
+        <v>19</v>
+      </c>
+      <c r="E151">
+        <v>126839</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>527</v>
+        <v>377</v>
       </c>
       <c r="B152" t="s">
-        <v>528</v>
+        <v>378</v>
       </c>
       <c r="C152" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D152" t="s">
-        <v>27</v>
-      </c>
-      <c r="E152" t="s">
-        <v>529</v>
+        <v>24</v>
+      </c>
+      <c r="E152">
+        <v>126793</v>
       </c>
       <c r="F152" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>530</v>
+        <v>379</v>
       </c>
       <c r="B153" t="s">
-        <v>531</v>
+        <v>380</v>
       </c>
       <c r="C153" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>144</v>
-      </c>
-      <c r="E153" t="s">
-        <v>532</v>
+        <v>113</v>
+      </c>
+      <c r="E153">
+        <v>126499</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>533</v>
+        <v>381</v>
       </c>
       <c r="B154" t="s">
-        <v>534</v>
+        <v>382</v>
       </c>
       <c r="C154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" t="s">
+        <v>113</v>
+      </c>
+      <c r="E154">
+        <v>125729</v>
+      </c>
+      <c r="F154" t="s">
         <v>20</v>
-      </c>
-      <c r="D154" t="s">
-        <v>144</v>
-      </c>
-      <c r="E154" t="s">
-        <v>535</v>
-      </c>
-      <c r="F154" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>536</v>
+        <v>383</v>
       </c>
       <c r="B155" t="s">
-        <v>537</v>
+        <v>384</v>
       </c>
       <c r="C155" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D155" t="s">
-        <v>178</v>
-      </c>
-      <c r="E155" t="s">
-        <v>538</v>
+        <v>138</v>
+      </c>
+      <c r="E155">
+        <v>124934</v>
       </c>
       <c r="F155" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>539</v>
+        <v>385</v>
       </c>
       <c r="B156" t="s">
-        <v>540</v>
+        <v>386</v>
       </c>
       <c r="C156" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D156" t="s">
-        <v>62</v>
-      </c>
-      <c r="E156" t="s">
-        <v>541</v>
+        <v>52</v>
+      </c>
+      <c r="E156">
+        <v>123711</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>542</v>
+        <v>387</v>
       </c>
       <c r="B157" t="s">
-        <v>543</v>
+        <v>388</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" t="s">
-        <v>544</v>
+        <v>14</v>
+      </c>
+      <c r="E157">
+        <v>123640</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>545</v>
+        <v>389</v>
       </c>
       <c r="B158" t="s">
-        <v>546</v>
+        <v>390</v>
       </c>
       <c r="C158" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" t="s">
-        <v>547</v>
+        <v>14</v>
+      </c>
+      <c r="E158">
+        <v>123038</v>
       </c>
       <c r="F158" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>548</v>
+        <v>391</v>
       </c>
       <c r="B159" t="s">
-        <v>549</v>
+        <v>392</v>
       </c>
       <c r="C159" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D159" t="s">
-        <v>47</v>
-      </c>
-      <c r="E159" t="s">
-        <v>550</v>
+        <v>40</v>
+      </c>
+      <c r="E159">
+        <v>123021</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>551</v>
+        <v>393</v>
       </c>
       <c r="B160" t="s">
-        <v>552</v>
+        <v>394</v>
       </c>
       <c r="C160" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>87</v>
-      </c>
-      <c r="E160" t="s">
-        <v>553</v>
+        <v>71</v>
+      </c>
+      <c r="E160">
+        <v>122750</v>
       </c>
       <c r="F160" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>554</v>
+        <v>395</v>
       </c>
       <c r="B161" t="s">
-        <v>555</v>
+        <v>396</v>
       </c>
       <c r="C161" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D161" t="s">
-        <v>62</v>
-      </c>
-      <c r="E161" t="s">
-        <v>556</v>
+        <v>52</v>
+      </c>
+      <c r="E161">
+        <v>122613</v>
       </c>
       <c r="F161" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>557</v>
+        <v>397</v>
       </c>
       <c r="B162" t="s">
-        <v>558</v>
+        <v>398</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>27</v>
-      </c>
-      <c r="E162" t="s">
-        <v>559</v>
+        <v>24</v>
+      </c>
+      <c r="E162">
+        <v>122611</v>
       </c>
       <c r="F162" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>560</v>
+        <v>399</v>
       </c>
       <c r="B163" t="s">
-        <v>561</v>
+        <v>400</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D163" t="s">
-        <v>47</v>
-      </c>
-      <c r="E163" t="s">
-        <v>562</v>
+        <v>40</v>
+      </c>
+      <c r="E163">
+        <v>121273</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>563</v>
+        <v>401</v>
       </c>
       <c r="B164" t="s">
-        <v>564</v>
+        <v>402</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D164" t="s">
-        <v>62</v>
-      </c>
-      <c r="E164" t="s">
-        <v>565</v>
+        <v>52</v>
+      </c>
+      <c r="E164">
+        <v>119882</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>566</v>
+        <v>403</v>
       </c>
       <c r="B165" t="s">
-        <v>567</v>
+        <v>404</v>
       </c>
       <c r="C165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D165" t="s">
-        <v>87</v>
-      </c>
-      <c r="E165" t="s">
-        <v>568</v>
+        <v>71</v>
+      </c>
+      <c r="E165">
+        <v>119646</v>
       </c>
       <c r="F165" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>569</v>
+        <v>405</v>
       </c>
       <c r="B166" t="s">
-        <v>570</v>
+        <v>406</v>
       </c>
       <c r="C166" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166" t="s">
-        <v>571</v>
+        <v>14</v>
+      </c>
+      <c r="E166">
+        <v>119280</v>
       </c>
       <c r="F166" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>572</v>
+        <v>407</v>
       </c>
       <c r="B167" t="s">
-        <v>573</v>
+        <v>408</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>62</v>
-      </c>
-      <c r="E167" t="s">
-        <v>574</v>
+        <v>52</v>
+      </c>
+      <c r="E167">
+        <v>118751</v>
       </c>
       <c r="F167" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>575</v>
+        <v>409</v>
       </c>
       <c r="B168" t="s">
-        <v>576</v>
+        <v>410</v>
       </c>
       <c r="C168" t="s">
         <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
-      </c>
-      <c r="E168" t="s">
-        <v>577</v>
+        <v>14</v>
+      </c>
+      <c r="E168">
+        <v>118519</v>
       </c>
       <c r="F168" t="s">
-        <v>578</v>
+        <v>411</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>579</v>
+        <v>412</v>
       </c>
       <c r="B169" t="s">
-        <v>580</v>
+        <v>413</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D169" t="s">
-        <v>119</v>
-      </c>
-      <c r="E169" t="s">
-        <v>581</v>
+        <v>95</v>
+      </c>
+      <c r="E169">
+        <v>118486</v>
       </c>
       <c r="F169" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>582</v>
+        <v>414</v>
       </c>
       <c r="B170" t="s">
-        <v>583</v>
+        <v>415</v>
       </c>
       <c r="C170" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D170" t="s">
-        <v>27</v>
-      </c>
-      <c r="E170" t="s">
-        <v>584</v>
+        <v>24</v>
+      </c>
+      <c r="E170">
+        <v>118317</v>
       </c>
       <c r="F170" t="s">
-        <v>476</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>585</v>
+        <v>416</v>
       </c>
       <c r="B171" t="s">
-        <v>586</v>
+        <v>417</v>
       </c>
       <c r="C171" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D171" t="s">
-        <v>119</v>
-      </c>
-      <c r="E171" t="s">
-        <v>587</v>
+        <v>95</v>
+      </c>
+      <c r="E171">
+        <v>118311</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>588</v>
+        <v>418</v>
       </c>
       <c r="B172" t="s">
-        <v>589</v>
+        <v>419</v>
       </c>
       <c r="C172" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D172" t="s">
-        <v>27</v>
-      </c>
-      <c r="E172" t="s">
-        <v>590</v>
+        <v>24</v>
+      </c>
+      <c r="E172">
+        <v>118289</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>591</v>
+        <v>420</v>
       </c>
       <c r="B173" t="s">
-        <v>592</v>
+        <v>421</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D173" t="s">
-        <v>144</v>
-      </c>
-      <c r="E173" t="s">
-        <v>593</v>
+        <v>113</v>
+      </c>
+      <c r="E173">
+        <v>118105</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>594</v>
+        <v>422</v>
       </c>
       <c r="B174" t="s">
-        <v>595</v>
+        <v>423</v>
       </c>
       <c r="C174" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D174" t="s">
-        <v>21</v>
-      </c>
-      <c r="E174" t="s">
-        <v>596</v>
+        <v>19</v>
+      </c>
+      <c r="E174">
+        <v>118022</v>
       </c>
       <c r="F174" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>597</v>
+        <v>424</v>
       </c>
       <c r="B175" t="s">
-        <v>598</v>
+        <v>425</v>
       </c>
       <c r="C175" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D175" t="s">
-        <v>144</v>
-      </c>
-      <c r="E175" t="s">
-        <v>599</v>
+        <v>113</v>
+      </c>
+      <c r="E175">
+        <v>117773</v>
       </c>
       <c r="F175" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>600</v>
+        <v>426</v>
       </c>
       <c r="B176" t="s">
-        <v>601</v>
+        <v>427</v>
       </c>
       <c r="C176" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D176" t="s">
-        <v>57</v>
-      </c>
-      <c r="E176" t="s">
-        <v>602</v>
+        <v>48</v>
+      </c>
+      <c r="E176">
+        <v>117563</v>
       </c>
       <c r="F176" t="s">
-        <v>603</v>
+        <v>428</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>604</v>
+        <v>429</v>
       </c>
       <c r="B177" t="s">
-        <v>605</v>
+        <v>430</v>
       </c>
       <c r="C177" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D177" t="s">
         <v>9</v>
       </c>
-      <c r="E177" t="s">
-        <v>606</v>
+      <c r="E177">
+        <v>116785</v>
       </c>
       <c r="F177" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>607</v>
+        <v>431</v>
       </c>
       <c r="B178" t="s">
-        <v>608</v>
+        <v>432</v>
       </c>
       <c r="C178" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D178" t="s">
-        <v>62</v>
-      </c>
-      <c r="E178" t="s">
-        <v>609</v>
+        <v>52</v>
+      </c>
+      <c r="E178">
+        <v>116039</v>
       </c>
       <c r="F178" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>610</v>
+        <v>433</v>
       </c>
       <c r="B179" t="s">
-        <v>611</v>
+        <v>434</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D179" t="s">
-        <v>57</v>
-      </c>
-      <c r="E179" t="s">
-        <v>612</v>
+        <v>48</v>
+      </c>
+      <c r="E179">
+        <v>115838</v>
       </c>
       <c r="F179" t="s">
-        <v>393</v>
+        <v>286</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>613</v>
+        <v>435</v>
       </c>
       <c r="B180" t="s">
-        <v>614</v>
+        <v>436</v>
       </c>
       <c r="C180" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D180" t="s">
-        <v>115</v>
-      </c>
-      <c r="E180" t="s">
-        <v>615</v>
+        <v>92</v>
+      </c>
+      <c r="E180">
+        <v>115075</v>
       </c>
       <c r="F180" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>616</v>
+        <v>437</v>
       </c>
       <c r="B181" t="s">
-        <v>617</v>
+        <v>438</v>
       </c>
       <c r="C181" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>62</v>
-      </c>
-      <c r="E181" t="s">
-        <v>618</v>
+        <v>52</v>
+      </c>
+      <c r="E181">
+        <v>113938</v>
       </c>
       <c r="F181" t="s">
-        <v>578</v>
+        <v>411</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>619</v>
+        <v>439</v>
       </c>
       <c r="B182" t="s">
-        <v>620</v>
+        <v>440</v>
       </c>
       <c r="C182" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D182" t="s">
-        <v>119</v>
-      </c>
-      <c r="E182" t="s">
-        <v>621</v>
+        <v>95</v>
+      </c>
+      <c r="E182">
+        <v>111771</v>
       </c>
       <c r="F182" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>622</v>
+        <v>441</v>
       </c>
       <c r="B183" t="s">
-        <v>623</v>
+        <v>442</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D183" t="s">
-        <v>119</v>
-      </c>
-      <c r="E183" t="s">
-        <v>624</v>
+        <v>95</v>
+      </c>
+      <c r="E183">
+        <v>111567</v>
       </c>
       <c r="F183" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>625</v>
+        <v>443</v>
       </c>
       <c r="B184" t="s">
-        <v>626</v>
+        <v>444</v>
       </c>
       <c r="C184" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>119</v>
-      </c>
-      <c r="E184" t="s">
-        <v>627</v>
+        <v>95</v>
+      </c>
+      <c r="E184">
+        <v>111298</v>
       </c>
       <c r="F184" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>628</v>
+        <v>445</v>
       </c>
       <c r="B185" t="s">
-        <v>629</v>
+        <v>446</v>
       </c>
       <c r="C185" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D185" t="s">
-        <v>62</v>
-      </c>
-      <c r="E185" t="s">
-        <v>630</v>
+        <v>52</v>
+      </c>
+      <c r="E185">
+        <v>110409</v>
       </c>
       <c r="F185" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>631</v>
+        <v>447</v>
       </c>
       <c r="B186" t="s">
-        <v>632</v>
+        <v>448</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D186" t="s">
-        <v>144</v>
-      </c>
-      <c r="E186" t="s">
-        <v>633</v>
+        <v>113</v>
+      </c>
+      <c r="E186">
+        <v>109928</v>
       </c>
       <c r="F186" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>634</v>
+        <v>449</v>
       </c>
       <c r="B187" t="s">
-        <v>635</v>
+        <v>450</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D187" t="s">
-        <v>47</v>
-      </c>
-      <c r="E187" t="s">
-        <v>636</v>
+        <v>40</v>
+      </c>
+      <c r="E187">
+        <v>109345</v>
       </c>
       <c r="F187" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>637</v>
+        <v>451</v>
       </c>
       <c r="B188" t="s">
-        <v>638</v>
+        <v>452</v>
       </c>
       <c r="C188" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>47</v>
-      </c>
-      <c r="E188" t="s">
-        <v>639</v>
+        <v>40</v>
+      </c>
+      <c r="E188">
+        <v>109315</v>
       </c>
       <c r="F188" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>640</v>
+        <v>453</v>
       </c>
       <c r="B189" t="s">
-        <v>641</v>
+        <v>454</v>
       </c>
       <c r="C189" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D189" t="s">
-        <v>87</v>
-      </c>
-      <c r="E189" t="s">
-        <v>642</v>
+        <v>71</v>
+      </c>
+      <c r="E189">
+        <v>108594</v>
       </c>
       <c r="F189" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>643</v>
+        <v>455</v>
       </c>
       <c r="B190" t="s">
-        <v>644</v>
+        <v>456</v>
       </c>
       <c r="C190" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D190" t="s">
-        <v>115</v>
-      </c>
-      <c r="E190" t="s">
-        <v>645</v>
+        <v>92</v>
+      </c>
+      <c r="E190">
+        <v>108208</v>
       </c>
       <c r="F190" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>646</v>
+        <v>457</v>
       </c>
       <c r="B191" t="s">
-        <v>647</v>
+        <v>458</v>
       </c>
       <c r="C191" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D191" t="s">
-        <v>119</v>
-      </c>
-      <c r="E191" t="s">
-        <v>648</v>
+        <v>95</v>
+      </c>
+      <c r="E191">
+        <v>107668</v>
       </c>
       <c r="F191" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>649</v>
+        <v>459</v>
       </c>
       <c r="B192" t="s">
-        <v>650</v>
+        <v>460</v>
       </c>
       <c r="C192" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>21</v>
-      </c>
-      <c r="E192" t="s">
-        <v>651</v>
+        <v>19</v>
+      </c>
+      <c r="E192">
+        <v>107424</v>
       </c>
       <c r="F192" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>652</v>
+        <v>461</v>
       </c>
       <c r="B193" t="s">
-        <v>653</v>
+        <v>462</v>
       </c>
       <c r="C193" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D193" t="s">
-        <v>21</v>
-      </c>
-      <c r="E193" t="s">
-        <v>654</v>
+        <v>19</v>
+      </c>
+      <c r="E193">
+        <v>106980</v>
       </c>
       <c r="F193" t="s">
-        <v>476</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>655</v>
+        <v>463</v>
       </c>
       <c r="B194" t="s">
-        <v>656</v>
+        <v>464</v>
       </c>
       <c r="C194" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D194" t="s">
-        <v>57</v>
-      </c>
-      <c r="E194" t="s">
-        <v>657</v>
+        <v>48</v>
+      </c>
+      <c r="E194">
+        <v>106051</v>
       </c>
       <c r="F194" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>658</v>
+        <v>465</v>
       </c>
       <c r="B195" t="s">
-        <v>659</v>
+        <v>466</v>
       </c>
       <c r="C195" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D195" t="s">
-        <v>27</v>
-      </c>
-      <c r="E195" t="s">
-        <v>660</v>
+        <v>24</v>
+      </c>
+      <c r="E195">
+        <v>105689</v>
       </c>
       <c r="F195" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>661</v>
+        <v>467</v>
       </c>
       <c r="B196" t="s">
-        <v>662</v>
+        <v>468</v>
       </c>
       <c r="C196" t="s">
         <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>15</v>
-      </c>
-      <c r="E196" t="s">
-        <v>663</v>
+        <v>14</v>
+      </c>
+      <c r="E196">
+        <v>104956</v>
       </c>
       <c r="F196" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>664</v>
+        <v>469</v>
       </c>
       <c r="B197" t="s">
-        <v>665</v>
+        <v>470</v>
       </c>
       <c r="C197" t="s">
         <v>8</v>
       </c>
       <c r="D197" t="s">
-        <v>47</v>
-      </c>
-      <c r="E197" t="s">
-        <v>666</v>
+        <v>40</v>
+      </c>
+      <c r="E197">
+        <v>104950</v>
       </c>
       <c r="F197" t="s">
-        <v>667</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>668</v>
+        <v>472</v>
       </c>
       <c r="B198" t="s">
-        <v>669</v>
+        <v>473</v>
       </c>
       <c r="C198" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D198" t="s">
-        <v>47</v>
-      </c>
-      <c r="E198" t="s">
-        <v>670</v>
+        <v>40</v>
+      </c>
+      <c r="E198">
+        <v>104544</v>
       </c>
       <c r="F198" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>671</v>
+        <v>474</v>
       </c>
       <c r="B199" t="s">
-        <v>672</v>
+        <v>475</v>
       </c>
       <c r="C199" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D199" t="s">
-        <v>673</v>
-      </c>
-      <c r="E199" t="s">
-        <v>674</v>
+        <v>476</v>
+      </c>
+      <c r="E199">
+        <v>103608</v>
       </c>
       <c r="F199" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>675</v>
+        <v>477</v>
       </c>
       <c r="B200" t="s">
-        <v>676</v>
+        <v>478</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
       </c>
-      <c r="E200" t="s">
-        <v>677</v>
+      <c r="E200">
+        <v>103093</v>
       </c>
       <c r="F200" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>678</v>
+        <v>479</v>
       </c>
       <c r="B201" t="s">
-        <v>679</v>
+        <v>480</v>
       </c>
       <c r="C201" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D201" t="s">
-        <v>15</v>
-      </c>
-      <c r="E201" t="s">
-        <v>680</v>
+        <v>14</v>
+      </c>
+      <c r="E201">
+        <v>102977</v>
       </c>
       <c r="F201" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>681</v>
+        <v>481</v>
       </c>
       <c r="B202" t="s">
-        <v>682</v>
+        <v>482</v>
       </c>
       <c r="C202" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D202" t="s">
-        <v>15</v>
-      </c>
-      <c r="E202" t="s">
-        <v>683</v>
+        <v>14</v>
+      </c>
+      <c r="E202">
+        <v>102871</v>
       </c>
       <c r="F202" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>684</v>
+        <v>483</v>
       </c>
       <c r="B203" t="s">
-        <v>685</v>
+        <v>484</v>
       </c>
       <c r="C203" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D203" t="s">
-        <v>47</v>
-      </c>
-      <c r="E203" t="s">
-        <v>686</v>
+        <v>40</v>
+      </c>
+      <c r="E203">
+        <v>101645</v>
       </c>
       <c r="F203" t="s">
-        <v>476</v>
+        <v>342</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>687</v>
+        <v>485</v>
       </c>
       <c r="B204" t="s">
-        <v>688</v>
+        <v>486</v>
       </c>
       <c r="C204" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D204" t="s">
-        <v>57</v>
-      </c>
-      <c r="E204" t="s">
-        <v>689</v>
+        <v>48</v>
+      </c>
+      <c r="E204">
+        <v>101425</v>
       </c>
       <c r="F204" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>690</v>
+        <v>487</v>
       </c>
       <c r="B205" t="s">
-        <v>691</v>
+        <v>488</v>
       </c>
       <c r="C205" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D205" t="s">
-        <v>119</v>
-      </c>
-      <c r="E205" t="s">
-        <v>692</v>
+        <v>95</v>
+      </c>
+      <c r="E205">
+        <v>100771</v>
       </c>
       <c r="F205" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>693</v>
+        <v>489</v>
       </c>
       <c r="B206" t="s">
-        <v>694</v>
+        <v>490</v>
       </c>
       <c r="C206" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D206" t="s">
-        <v>21</v>
-      </c>
-      <c r="E206" t="s">
-        <v>695</v>
+        <v>19</v>
+      </c>
+      <c r="E206">
+        <v>99959</v>
       </c>
       <c r="F206" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>696</v>
+        <v>491</v>
       </c>
       <c r="B207" t="s">
-        <v>697</v>
+        <v>492</v>
       </c>
       <c r="C207" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D207" t="s">
-        <v>15</v>
-      </c>
-      <c r="E207" t="s">
-        <v>698</v>
+        <v>14</v>
+      </c>
+      <c r="E207">
+        <v>99882</v>
       </c>
       <c r="F207" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>699</v>
+        <v>493</v>
       </c>
       <c r="B208" t="s">
-        <v>700</v>
+        <v>494</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D208" t="s">
-        <v>67</v>
-      </c>
-      <c r="E208" t="s">
-        <v>701</v>
+        <v>56</v>
+      </c>
+      <c r="E208">
+        <v>99757</v>
       </c>
       <c r="F208" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>702</v>
+        <v>495</v>
       </c>
       <c r="B209" t="s">
-        <v>703</v>
+        <v>496</v>
       </c>
       <c r="C209" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D209" t="s">
-        <v>119</v>
-      </c>
-      <c r="E209" t="s">
-        <v>704</v>
+        <v>95</v>
+      </c>
+      <c r="E209">
+        <v>99467</v>
       </c>
       <c r="F209" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>705</v>
+        <v>497</v>
       </c>
       <c r="B210" t="s">
-        <v>706</v>
+        <v>498</v>
       </c>
       <c r="C210" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D210" t="s">
-        <v>119</v>
-      </c>
-      <c r="E210" t="s">
-        <v>707</v>
+        <v>95</v>
+      </c>
+      <c r="E210">
+        <v>98104</v>
       </c>
       <c r="F210" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>708</v>
+        <v>499</v>
       </c>
       <c r="B211" t="s">
-        <v>709</v>
+        <v>500</v>
       </c>
       <c r="C211" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D211" t="s">
-        <v>178</v>
-      </c>
-      <c r="E211" t="s">
-        <v>710</v>
+        <v>138</v>
+      </c>
+      <c r="E211">
+        <v>97918</v>
       </c>
       <c r="F211" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>711</v>
+        <v>501</v>
       </c>
       <c r="B212" t="s">
-        <v>712</v>
+        <v>502</v>
       </c>
       <c r="C212" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D212" t="s">
-        <v>115</v>
-      </c>
-      <c r="E212" t="s">
-        <v>713</v>
+        <v>92</v>
+      </c>
+      <c r="E212">
+        <v>97852</v>
       </c>
       <c r="F212" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>714</v>
+        <v>503</v>
       </c>
       <c r="B213" t="s">
-        <v>715</v>
+        <v>504</v>
       </c>
       <c r="C213" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D213" t="s">
-        <v>67</v>
-      </c>
-      <c r="E213" t="s">
-        <v>716</v>
+        <v>56</v>
+      </c>
+      <c r="E213">
+        <v>97840</v>
       </c>
       <c r="F213" t="s">
-        <v>480</v>
+        <v>345</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>717</v>
+        <v>505</v>
       </c>
       <c r="B214" t="s">
-        <v>718</v>
+        <v>506</v>
       </c>
       <c r="C214" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D214" t="s">
         <v>9</v>
       </c>
-      <c r="E214" t="s">
-        <v>719</v>
+      <c r="E214">
+        <v>97800</v>
       </c>
       <c r="F214" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>720</v>
+        <v>507</v>
       </c>
       <c r="B215" t="s">
-        <v>721</v>
+        <v>508</v>
       </c>
       <c r="C215" t="s">
         <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>57</v>
-      </c>
-      <c r="E215" t="s">
-        <v>722</v>
+        <v>48</v>
+      </c>
+      <c r="E215">
+        <v>97690</v>
       </c>
       <c r="F215" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="B216" t="s">
-        <v>724</v>
+        <v>510</v>
       </c>
       <c r="C216" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D216" t="s">
-        <v>57</v>
-      </c>
-      <c r="E216" t="s">
-        <v>725</v>
+        <v>48</v>
+      </c>
+      <c r="E216">
+        <v>97477</v>
       </c>
       <c r="F216" t="s">
-        <v>726</v>
+        <v>511</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>727</v>
+        <v>512</v>
       </c>
       <c r="B217" t="s">
-        <v>728</v>
+        <v>513</v>
       </c>
       <c r="C217" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D217" t="s">
-        <v>67</v>
-      </c>
-      <c r="E217" t="s">
-        <v>729</v>
+        <v>56</v>
+      </c>
+      <c r="E217">
+        <v>96542</v>
       </c>
       <c r="F217" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>730</v>
+        <v>514</v>
       </c>
       <c r="B218" t="s">
-        <v>731</v>
+        <v>515</v>
       </c>
       <c r="C218" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D218" t="s">
-        <v>87</v>
-      </c>
-      <c r="E218" t="s">
-        <v>732</v>
+        <v>71</v>
+      </c>
+      <c r="E218">
+        <v>96310</v>
       </c>
       <c r="F218" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>733</v>
+        <v>516</v>
       </c>
       <c r="B219" t="s">
-        <v>734</v>
+        <v>517</v>
       </c>
       <c r="C219" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D219" t="s">
-        <v>67</v>
-      </c>
-      <c r="E219" t="s">
-        <v>735</v>
+        <v>56</v>
+      </c>
+      <c r="E219">
+        <v>95991</v>
       </c>
       <c r="F219" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>736</v>
+        <v>518</v>
       </c>
       <c r="B220" t="s">
-        <v>737</v>
+        <v>519</v>
       </c>
       <c r="C220" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D220" t="s">
-        <v>144</v>
-      </c>
-      <c r="E220" t="s">
-        <v>738</v>
+        <v>113</v>
+      </c>
+      <c r="E220">
+        <v>94979</v>
       </c>
       <c r="F220" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>739</v>
+        <v>520</v>
       </c>
       <c r="B221" t="s">
-        <v>740</v>
+        <v>521</v>
       </c>
       <c r="C221" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D221" t="s">
-        <v>27</v>
-      </c>
-      <c r="E221" t="s">
-        <v>741</v>
+        <v>24</v>
+      </c>
+      <c r="E221">
+        <v>94362</v>
       </c>
       <c r="F221" t="s">
-        <v>480</v>
+        <v>345</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>742</v>
+        <v>522</v>
       </c>
       <c r="B222" t="s">
-        <v>743</v>
+        <v>523</v>
       </c>
       <c r="C222" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D222" t="s">
-        <v>57</v>
-      </c>
-      <c r="E222" t="s">
-        <v>744</v>
+        <v>48</v>
+      </c>
+      <c r="E222">
+        <v>94328</v>
       </c>
       <c r="F222" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>745</v>
+        <v>524</v>
       </c>
       <c r="B223" t="s">
-        <v>746</v>
+        <v>525</v>
       </c>
       <c r="C223" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D223" t="s">
-        <v>87</v>
-      </c>
-      <c r="E223" t="s">
-        <v>747</v>
+        <v>71</v>
+      </c>
+      <c r="E223">
+        <v>93622</v>
       </c>
       <c r="F223" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>748</v>
+        <v>526</v>
       </c>
       <c r="B224" t="s">
-        <v>749</v>
+        <v>527</v>
       </c>
       <c r="C224" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
-      </c>
-      <c r="E224" t="s">
-        <v>750</v>
+        <v>14</v>
+      </c>
+      <c r="E224">
+        <v>93067</v>
       </c>
       <c r="F224" t="s">
-        <v>476</v>
+        <v>342</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>751</v>
+        <v>528</v>
       </c>
       <c r="B225" t="s">
-        <v>752</v>
+        <v>529</v>
       </c>
       <c r="C225" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D225" t="s">
-        <v>27</v>
-      </c>
-      <c r="E225" t="s">
-        <v>753</v>
+        <v>24</v>
+      </c>
+      <c r="E225">
+        <v>93007</v>
       </c>
       <c r="F225" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>754</v>
+        <v>530</v>
       </c>
       <c r="B226" t="s">
-        <v>755</v>
+        <v>531</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D226" t="s">
-        <v>27</v>
-      </c>
-      <c r="E226" t="s">
-        <v>756</v>
+        <v>24</v>
+      </c>
+      <c r="E226">
+        <v>92034</v>
       </c>
       <c r="F226" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>757</v>
+        <v>532</v>
       </c>
       <c r="B227" t="s">
-        <v>758</v>
+        <v>533</v>
       </c>
       <c r="C227" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D227" t="s">
-        <v>87</v>
-      </c>
-      <c r="E227" t="s">
-        <v>759</v>
+        <v>71</v>
+      </c>
+      <c r="E227">
+        <v>91140</v>
       </c>
       <c r="F227" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>760</v>
+        <v>534</v>
       </c>
       <c r="B228" t="s">
-        <v>761</v>
+        <v>535</v>
       </c>
       <c r="C228" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D228" t="s">
-        <v>15</v>
-      </c>
-      <c r="E228" t="s">
-        <v>762</v>
+        <v>14</v>
+      </c>
+      <c r="E228">
+        <v>90807</v>
       </c>
       <c r="F228" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>763</v>
+        <v>536</v>
       </c>
       <c r="B229" t="s">
-        <v>764</v>
+        <v>537</v>
       </c>
       <c r="C229" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D229" t="s">
-        <v>62</v>
-      </c>
-      <c r="E229" t="s">
-        <v>765</v>
+        <v>52</v>
+      </c>
+      <c r="E229">
+        <v>90762</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>766</v>
+        <v>538</v>
       </c>
       <c r="B230" t="s">
-        <v>767</v>
+        <v>539</v>
       </c>
       <c r="C230" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D230" t="s">
-        <v>119</v>
-      </c>
-      <c r="E230" t="s">
-        <v>768</v>
+        <v>95</v>
+      </c>
+      <c r="E230">
+        <v>90738</v>
       </c>
       <c r="F230" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>769</v>
+        <v>540</v>
       </c>
       <c r="B231" t="s">
-        <v>770</v>
+        <v>541</v>
       </c>
       <c r="C231" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D231" t="s">
-        <v>15</v>
-      </c>
-      <c r="E231" t="s">
-        <v>771</v>
+        <v>14</v>
+      </c>
+      <c r="E231">
+        <v>90091</v>
       </c>
       <c r="F231" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>772</v>
+        <v>542</v>
       </c>
       <c r="B232" t="s">
-        <v>773</v>
+        <v>543</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D232" t="s">
-        <v>144</v>
-      </c>
-      <c r="E232" t="s">
-        <v>774</v>
+        <v>113</v>
+      </c>
+      <c r="E232">
+        <v>89948</v>
       </c>
       <c r="F232" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>775</v>
+        <v>544</v>
       </c>
       <c r="B233" t="s">
-        <v>776</v>
+        <v>545</v>
       </c>
       <c r="C233" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
-      </c>
-      <c r="E233" t="s">
-        <v>777</v>
+        <v>14</v>
+      </c>
+      <c r="E233">
+        <v>88395</v>
       </c>
       <c r="F233" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>778</v>
+        <v>546</v>
       </c>
       <c r="B234" t="s">
-        <v>779</v>
+        <v>547</v>
       </c>
       <c r="C234" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D234" t="s">
-        <v>47</v>
-      </c>
-      <c r="E234" t="s">
-        <v>780</v>
+        <v>40</v>
+      </c>
+      <c r="E234">
+        <v>88001</v>
       </c>
       <c r="F234" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>781</v>
+        <v>548</v>
       </c>
       <c r="B235" t="s">
-        <v>782</v>
+        <v>549</v>
       </c>
       <c r="C235" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D235" t="s">
-        <v>144</v>
-      </c>
-      <c r="E235" t="s">
-        <v>783</v>
+        <v>113</v>
+      </c>
+      <c r="E235">
+        <v>87291</v>
       </c>
       <c r="F235" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>784</v>
+        <v>550</v>
       </c>
       <c r="B236" t="s">
-        <v>785</v>
+        <v>551</v>
       </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D236" t="s">
-        <v>47</v>
-      </c>
-      <c r="E236" t="s">
-        <v>786</v>
+        <v>40</v>
+      </c>
+      <c r="E236">
+        <v>86741</v>
       </c>
       <c r="F236" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>787</v>
+        <v>552</v>
       </c>
       <c r="B237" t="s">
-        <v>788</v>
+        <v>553</v>
       </c>
       <c r="C237" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D237" t="s">
-        <v>47</v>
-      </c>
-      <c r="E237" t="s">
-        <v>789</v>
+        <v>40</v>
+      </c>
+      <c r="E237">
+        <v>86460</v>
       </c>
       <c r="F237" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>790</v>
+        <v>554</v>
       </c>
       <c r="B238" t="s">
-        <v>791</v>
+        <v>555</v>
       </c>
       <c r="C238" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D238" t="s">
-        <v>178</v>
-      </c>
-      <c r="E238" t="s">
-        <v>792</v>
+        <v>138</v>
+      </c>
+      <c r="E238">
+        <v>86283</v>
       </c>
       <c r="F238" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>793</v>
+        <v>556</v>
       </c>
       <c r="B239" t="s">
-        <v>794</v>
+        <v>557</v>
       </c>
       <c r="C239" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D239" t="s">
-        <v>47</v>
-      </c>
-      <c r="E239" t="s">
-        <v>795</v>
+        <v>40</v>
+      </c>
+      <c r="E239">
+        <v>85350</v>
       </c>
       <c r="F239" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>796</v>
+        <v>558</v>
       </c>
       <c r="B240" t="s">
-        <v>797</v>
+        <v>559</v>
       </c>
       <c r="C240" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D240" t="s">
-        <v>87</v>
-      </c>
-      <c r="E240" t="s">
-        <v>798</v>
+        <v>71</v>
+      </c>
+      <c r="E240">
+        <v>84893</v>
       </c>
       <c r="F240" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>799</v>
+        <v>560</v>
       </c>
       <c r="B241" t="s">
-        <v>800</v>
+        <v>561</v>
       </c>
       <c r="C241" t="s">
         <v>8</v>
       </c>
       <c r="D241" t="s">
-        <v>178</v>
-      </c>
-      <c r="E241" t="s">
-        <v>801</v>
+        <v>138</v>
+      </c>
+      <c r="E241">
+        <v>84711</v>
       </c>
       <c r="F241" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>802</v>
+        <v>562</v>
       </c>
       <c r="B242" t="s">
-        <v>803</v>
+        <v>563</v>
       </c>
       <c r="C242" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D242" t="s">
-        <v>21</v>
-      </c>
-      <c r="E242" t="s">
-        <v>804</v>
+        <v>19</v>
+      </c>
+      <c r="E242">
+        <v>84266</v>
       </c>
       <c r="F242" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>805</v>
+        <v>564</v>
       </c>
       <c r="B243" t="s">
-        <v>806</v>
+        <v>565</v>
       </c>
       <c r="C243" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D243" t="s">
-        <v>32</v>
-      </c>
-      <c r="E243" t="s">
-        <v>807</v>
+        <v>28</v>
+      </c>
+      <c r="E243">
+        <v>84045</v>
       </c>
       <c r="F243" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>808</v>
+        <v>566</v>
       </c>
       <c r="B244" t="s">
-        <v>809</v>
+        <v>567</v>
       </c>
       <c r="C244" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D244" t="s">
-        <v>62</v>
-      </c>
-      <c r="E244" t="s">
-        <v>810</v>
+        <v>52</v>
+      </c>
+      <c r="E244">
+        <v>84000</v>
       </c>
       <c r="F244" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>811</v>
+        <v>568</v>
       </c>
       <c r="B245" t="s">
-        <v>812</v>
+        <v>569</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
       </c>
       <c r="D245" t="s">
-        <v>57</v>
-      </c>
-      <c r="E245" t="s">
-        <v>813</v>
+        <v>48</v>
+      </c>
+      <c r="E245">
+        <v>82578</v>
       </c>
       <c r="F245" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>814</v>
+        <v>570</v>
       </c>
       <c r="B246" t="s">
-        <v>815</v>
+        <v>571</v>
       </c>
       <c r="C246" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D246" t="s">
         <v>9</v>
       </c>
-      <c r="E246" t="s">
-        <v>816</v>
+      <c r="E246">
+        <v>82433</v>
       </c>
       <c r="F246" t="s">
-        <v>726</v>
+        <v>511</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>817</v>
+        <v>572</v>
       </c>
       <c r="B247" t="s">
-        <v>818</v>
+        <v>573</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D247" t="s">
-        <v>27</v>
-      </c>
-      <c r="E247" t="s">
-        <v>819</v>
+        <v>24</v>
+      </c>
+      <c r="E247">
+        <v>82196</v>
       </c>
       <c r="F247" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>820</v>
+        <v>574</v>
       </c>
       <c r="B248" t="s">
-        <v>821</v>
+        <v>575</v>
       </c>
       <c r="C248" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D248" t="s">
-        <v>119</v>
-      </c>
-      <c r="E248" t="s">
-        <v>822</v>
+        <v>95</v>
+      </c>
+      <c r="E248">
+        <v>81545</v>
       </c>
       <c r="F248" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>823</v>
+        <v>576</v>
       </c>
       <c r="B249" t="s">
-        <v>824</v>
+        <v>577</v>
       </c>
       <c r="C249" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D249" t="s">
-        <v>15</v>
-      </c>
-      <c r="E249" t="s">
-        <v>825</v>
+        <v>14</v>
+      </c>
+      <c r="E249">
+        <v>81316</v>
       </c>
       <c r="F249" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>826</v>
+        <v>578</v>
       </c>
       <c r="B250" t="s">
-        <v>827</v>
+        <v>579</v>
       </c>
       <c r="C250" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D250" t="s">
-        <v>119</v>
-      </c>
-      <c r="E250" t="s">
-        <v>828</v>
+        <v>95</v>
+      </c>
+      <c r="E250">
+        <v>81267</v>
       </c>
       <c r="F250" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>829</v>
+        <v>580</v>
       </c>
       <c r="B251" t="s">
-        <v>830</v>
+        <v>581</v>
       </c>
       <c r="C251" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D251" t="s">
-        <v>87</v>
-      </c>
-      <c r="E251" t="s">
-        <v>831</v>
+        <v>71</v>
+      </c>
+      <c r="E251">
+        <v>80740</v>
       </c>
       <c r="F251" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
